--- a/database list.xlsx
+++ b/database list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LopezmRo\Documents\dev\researchDatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E5589-D191-4959-AAA3-78D18AE4B206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8432FA9-3777-40E8-B3CC-3E664BB7E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{6B7170F7-879C-467E-A32F-F362A164B79E}"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,9 +236,6 @@
     <t>Free for download</t>
   </si>
   <si>
-    <t>* Replaced by the PLACES Project on Dec. 2020</t>
-  </si>
-  <si>
     <t>AQS</t>
   </si>
   <si>
@@ -3585,6 +3582,9 @@
   </si>
   <si>
     <t>Area Deprivation Index (ADI-3)</t>
+  </si>
+  <si>
+    <t>* Replaced by the [PLACES Project](https://cu-anschutz-dos-corp.github.io/researchDatabases/places-local-data-for-better-health.html) on Dec. 2020</t>
   </si>
 </sst>
 </file>
@@ -4551,10 +4551,10 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,39 +4612,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>990</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>30</v>
@@ -4653,133 +4653,131 @@
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O2" s="8">
         <v>44958</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>990</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="8">
         <v>44958</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>991</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="8">
         <v>44958</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>12</v>
@@ -4787,279 +4785,279 @@
       <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8">
+      <c r="N5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="15">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="8">
         <v>44958</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="15">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="8">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" s="8">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O8" s="8">
-        <v>44963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="L9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="15">
         <v>44971</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>134</v>
+    <row r="10" spans="1:15" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>992</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="8">
         <v>44971</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>144</v>
+    <row r="11" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>993</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5068,40 +5066,42 @@
         <v>30</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="O11" s="8">
         <v>44971</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>994</v>
+        <v>163</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>18</v>
@@ -5112,43 +5112,41 @@
       <c r="M12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="8">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>18</v>
@@ -5159,88 +5157,90 @@
       <c r="M13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="O13" s="8">
         <v>44974</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O14" s="8">
         <v>44974</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>56</v>
@@ -5249,139 +5249,139 @@
         <v>30</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O15" s="8">
         <v>44974</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O16" s="8">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O17" s="8">
         <v>44999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>218</v>
+        <v>231</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>56</v>
@@ -5393,42 +5393,42 @@
         <v>30</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O18" s="8">
         <v>44999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>225</v>
+    <row r="19" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>227</v>
+        <v>236</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2019</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>56</v>
@@ -5440,42 +5440,42 @@
         <v>30</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="8">
-        <v>44999</v>
+        <v>242</v>
+      </c>
+      <c r="O19" s="15">
+        <v>44971</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>236</v>
+      <c r="A20" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>238</v>
+        <v>134</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2019</v>
+        <v>246</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>56</v>
@@ -5487,42 +5487,42 @@
         <v>30</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="O20" s="15">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="O20" s="22">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>56</v>
@@ -5534,42 +5534,42 @@
         <v>30</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="O21" s="22">
+        <v>262</v>
+      </c>
+      <c r="O21" s="8">
         <v>44999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="171" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>255</v>
+    <row r="22" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>267</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2020</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>261</v>
+        <v>269</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>56</v>
@@ -5581,42 +5581,42 @@
         <v>30</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O22" s="8">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>265</v>
+        <v>272</v>
+      </c>
+      <c r="O22" s="15">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2020</v>
+        <v>277</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>56</v>
@@ -5628,136 +5628,136 @@
         <v>30</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O23" s="15">
+        <v>282</v>
+      </c>
+      <c r="O23" s="8">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="O24" s="8">
         <v>44971</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K24" s="7" t="s">
+    <row r="25" spans="1:15" ht="313.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O24" s="8">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="171" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="O25" s="8">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="313.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>297</v>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>299</v>
+        <v>308</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>56</v>
@@ -5769,42 +5769,42 @@
         <v>30</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="O26" s="8">
+        <v>316</v>
+      </c>
+      <c r="O26" s="22">
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>308</v>
+    <row r="27" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>56</v>
@@ -5816,42 +5816,42 @@
         <v>30</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="O27" s="22">
+        <v>327</v>
+      </c>
+      <c r="O27" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="356.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>327</v>
+        <v>334</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>56</v>
@@ -5863,42 +5863,42 @@
         <v>30</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O28" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>333</v>
+        <v>340</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>56</v>
@@ -5910,42 +5910,42 @@
         <v>30</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="O29" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="228" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>346</v>
+        <v>354</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>56</v>
@@ -5956,225 +5956,225 @@
       <c r="M30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>351</v>
+        <v>359</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="O31" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K32" s="7" t="s">
+    <row r="32" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="O32" s="25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="M33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="O33" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="O33" s="25">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>391</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>392</v>
+      </c>
       <c r="G34" s="7" t="s">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="O34" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>393</v>
+        <v>400</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>116</v>
+        <v>402</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>56</v>
@@ -6186,42 +6186,40 @@
         <v>30</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="O35" s="8">
+        <v>151</v>
+      </c>
+      <c r="O35" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>404</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="12" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>56</v>
@@ -6233,181 +6231,181 @@
         <v>30</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>152</v>
+        <v>412</v>
       </c>
       <c r="O36" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="171" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>409</v>
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>411</v>
+        <v>416</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="12" t="s">
-        <v>409</v>
+        <v>418</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>56</v>
+        <v>422</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="O37" s="15">
+        <v>424</v>
+      </c>
+      <c r="O37" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>417</v>
+        <v>44</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>420</v>
+        <v>38</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>425</v>
       </c>
       <c r="O38" s="8">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="O39" s="8">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>56</v>
@@ -6418,135 +6416,137 @@
       <c r="M40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="O40" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>437</v>
+    <row r="41" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>440</v>
+        <v>445</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>438</v>
+        <v>447</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="O41" s="15">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O41" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="L42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="O42" s="15">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>454</v>
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2018</v>
+        <v>466</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>467</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>56</v>
@@ -6558,42 +6558,42 @@
         <v>30</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="O43" s="15">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="O43" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>465</v>
+        <v>13</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>466</v>
+        <v>477</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>56</v>
@@ -6605,183 +6605,183 @@
         <v>30</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>152</v>
+        <v>480</v>
       </c>
       <c r="O44" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>13</v>
+    <row r="45" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K45" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>481</v>
+      <c r="L45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="O45" s="8">
         <v>45000</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>484</v>
+      <c r="A46" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>493</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>152</v>
+        <v>494</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="O46" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>501</v>
+        <v>56</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="O47" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>515</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>56</v>
@@ -6793,45 +6793,45 @@
         <v>30</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>512</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="171" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>199</v>
+        <v>526</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>516</v>
+        <v>527</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>30</v>
@@ -6840,277 +6840,277 @@
         <v>30</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>152</v>
+        <v>530</v>
       </c>
       <c r="O49" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>30</v>
+        <v>541</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>30</v>
+        <v>542</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="O50" s="8">
         <v>45005</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>532</v>
+        <v>33</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>533</v>
+        <v>16</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>535</v>
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>536</v>
+        <v>39</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>537</v>
+        <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>538</v>
+        <v>23</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>539</v>
+        <v>40</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>540</v>
+        <v>24</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>541</v>
+        <v>25</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>542</v>
+        <v>37</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>543</v>
+        <v>37</v>
       </c>
       <c r="N51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="8">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="O51" s="8">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="B52" s="7" t="s">
-        <v>16</v>
+        <v>545</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>47</v>
+      <c r="D52" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>24</v>
+        <v>550</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>551</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>41</v>
+        <v>553</v>
       </c>
       <c r="O52" s="8">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>552</v>
+        <v>558</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>559</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="O53" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="O53" s="8">
+      <c r="L54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="O54" s="8">
         <v>45006</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="O54" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>18</v>
@@ -7121,323 +7121,321 @@
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="7" t="s">
-        <v>572</v>
-      </c>
+      <c r="N55" s="7"/>
       <c r="O55" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="228" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>573</v>
+        <v>34</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>574</v>
+        <v>17</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>576</v>
+        <v>14</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>577</v>
+        <v>42</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>578</v>
+        <v>26</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>579</v>
+        <v>418</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>581</v>
+        <v>43</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="O56" s="8">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="228" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="L57" s="7" t="s">
-        <v>424</v>
+        <v>30</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="O57" s="8">
-        <v>44939</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>590</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J58" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="O58" s="8">
         <v>45008</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="K59" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="O59" s="8">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="O59" s="8">
+      <c r="L60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="O60" s="8">
         <v>45008</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="H60" s="7" t="s">
+    <row r="61" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="K60" s="7" t="s">
+      <c r="J61" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="O60" s="8">
+      <c r="L61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="O61" s="8">
         <v>45019</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="O61" s="8">
-        <v>45008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="228" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>586</v>
+        <v>297</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>623</v>
+        <v>298</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>625</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>627</v>
+        <v>633</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>56</v>
@@ -7449,40 +7447,42 @@
         <v>30</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>628</v>
+        <v>151</v>
       </c>
       <c r="O62" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>299</v>
+        <v>637</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>639</v>
+      </c>
       <c r="G63" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>643</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>56</v>
@@ -7494,134 +7494,132 @@
         <v>30</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>152</v>
+        <v>644</v>
       </c>
       <c r="O63" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>644</v>
+        <v>651</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="O64" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="270.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="O64" s="8">
+      <c r="L65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="O65" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="O65" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>302</v>
+        <v>666</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="I66" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>56</v>
@@ -7633,236 +7631,238 @@
         <v>30</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="O66" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>298</v>
+        <v>672</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>299</v>
+        <v>673</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>674</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>675</v>
+      </c>
       <c r="G67" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>662</v>
+        <v>678</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>679</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M67" s="7"/>
       <c r="N67" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="O67" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>680</v>
+        <v>690</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>691</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7" t="s">
-        <v>682</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="N68" s="7"/>
       <c r="O68" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>685</v>
+        <v>464</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>692</v>
+        <v>261</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="N69" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="O69" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>696</v>
+        <v>14</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>262</v>
+        <v>708</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>56</v>
+        <v>422</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>152</v>
+        <v>709</v>
       </c>
       <c r="O70" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="K71" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="O71" s="8">
         <v>45044</v>
@@ -7870,500 +7870,500 @@
     </row>
     <row r="72" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>715</v>
+        <v>187</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>716</v>
+        <v>418</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="K72" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="O72" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>188</v>
+        <v>733</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>419</v>
+        <v>734</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>737</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>424</v>
+        <v>738</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>12</v>
+        <v>739</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="O73" s="8">
-        <v>45044</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>732</v>
+        <v>49</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>738</v>
+        <v>747</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="K74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="O74" s="8">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="K75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="N74" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="O74" s="8">
+      <c r="L75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="O75" s="8">
         <v>45012</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="K75" s="7" t="s">
+    <row r="76" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="O75" s="8">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>759</v>
-      </c>
       <c r="J76" s="12" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="O77" s="8">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="O76" s="8">
+      <c r="N78" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="O78" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="O79" s="8">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" s="7"/>
+      <c r="O80" s="22">
         <v>45012</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="I77" s="7" t="s">
+    <row r="81" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>770</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N77" s="7"/>
-      <c r="O77" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="O78" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>792</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="O79" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="O80" s="8">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N81" s="7"/>
-      <c r="O81" s="22">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>814</v>
+      <c r="L81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="O81" s="15">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>823</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>816</v>
+        <v>824</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>821</v>
+        <v>829</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>152</v>
+        <v>831</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>56</v>
@@ -8375,42 +8375,42 @@
         <v>30</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="O82" s="15">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="O82" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>832</v>
+        <v>840</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>56</v>
@@ -8422,101 +8422,101 @@
         <v>30</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>152</v>
+        <v>842</v>
       </c>
       <c r="O83" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>835</v>
+        <v>14</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>841</v>
+        <v>705</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>849</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>56</v>
+        <v>851</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>30</v>
+        <v>852</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="O84" s="8">
-        <v>44971</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H85" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>850</v>
-      </c>
       <c r="J85" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>852</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>853</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O85" s="8">
         <v>45006</v>
@@ -8524,175 +8524,175 @@
     </row>
     <row r="86" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>860</v>
+        <v>418</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="K86" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>852</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>853</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O86" s="8">
         <v>45006</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>14</v>
+        <v>870</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>866</v>
+        <v>872</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>873</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>419</v>
+        <v>874</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>868</v>
+        <v>876</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>877</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>852</v>
+        <v>375</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>853</v>
+        <v>12</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="O87" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>871</v>
+        <v>379</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>874</v>
+        <v>882</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>883</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>878</v>
+        <v>885</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>887</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>376</v>
+        <v>56</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>879</v>
+        <v>151</v>
       </c>
       <c r="O88" s="8">
-        <v>45019</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>380</v>
+        <v>101</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>884</v>
+        <v>401</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>885</v>
+        <v>127</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>888</v>
+        <v>892</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>894</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>56</v>
@@ -8701,45 +8701,45 @@
         <v>30</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O89" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>889</v>
+        <v>991</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>102</v>
+        <v>514</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>402</v>
+        <v>176</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>128</v>
+        <v>898</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>894</v>
+        <v>899</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>896</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>56</v>
@@ -8751,42 +8751,42 @@
         <v>30</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>152</v>
+        <v>901</v>
       </c>
       <c r="O90" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>992</v>
+        <v>902</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>515</v>
+        <v>297</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>897</v>
+        <v>298</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>177</v>
+        <v>905</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>897</v>
+        <v>907</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>908</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>901</v>
+        <v>661</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>56</v>
@@ -8798,230 +8798,230 @@
         <v>30</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="O91" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>299</v>
+        <v>912</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>913</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>906</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>662</v>
+        <v>918</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>56</v>
+        <v>919</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="O92" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>914</v>
+        <v>923</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>924</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>925</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>926</v>
+      </c>
       <c r="G93" s="7" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>919</v>
+        <v>928</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>929</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>920</v>
+        <v>56</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="O93" s="8">
-        <v>45044</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>929</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>925</v>
+        <v>938</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>939</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="K94" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="O94" s="8">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="K95" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>931</v>
-      </c>
-      <c r="O94" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="114" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>934</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>942</v>
-      </c>
       <c r="L95" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="O95" s="8">
         <v>45047</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="171" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>102</v>
+        <v>954</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>948</v>
+        <v>808</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="K96" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="K96" s="9" t="s">
         <v>56</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -9031,134 +9031,134 @@
         <v>30</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>952</v>
+        <v>151</v>
       </c>
       <c r="O96" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>955</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>956</v>
+        <v>963</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>964</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>809</v>
+        <v>966</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>958</v>
+        <v>323</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="K97" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="7"/>
+      <c r="O97" s="8">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="F98" s="7">
+        <v>2019</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O97" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>964</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>971</v>
-      </c>
       <c r="L98" s="7" t="s">
-        <v>655</v>
+        <v>30</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N98" s="7"/>
+      <c r="N98" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="O98" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="F99" s="7">
-        <v>2019</v>
+        <v>983</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>984</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>56</v>
@@ -9170,42 +9170,42 @@
         <v>30</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O99" s="8">
-        <v>45044</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>981</v>
+        <v>48</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>982</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>983</v>
+        <v>49</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>984</v>
+        <v>51</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>985</v>
+        <v>52</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>986</v>
+        <v>53</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>989</v>
+        <v>54</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>56</v>
@@ -9217,155 +9217,155 @@
         <v>30</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>152</v>
+        <v>994</v>
       </c>
       <c r="O100" s="8">
-        <v>45019</v>
+        <v>44958</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D6CD00FE-1F8A-4E3C-A894-2A6AE7B28F84}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{F4ADF909-6D91-4992-A5C9-401011AA10FD}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{F2B4DF6B-9457-410D-A7DE-9A7D5082D094}"/>
-    <hyperlink ref="I75" r:id="rId4" xr:uid="{552EF5FC-469B-455D-A07B-8B39C1DB2B69}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{68581172-FAAE-4086-BB92-B549D67A4272}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{0257253F-2E9B-48E4-9C38-45D1BDA35F50}"/>
-    <hyperlink ref="J3" r:id="rId7" xr:uid="{1FA5AC62-07AC-4523-BE85-6BD8705A91CC}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{D7F1A4C3-ED7C-4FF7-A0BE-E3751ECAFA31}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{116890E1-A672-45DD-BFB5-8FC48D4B0015}"/>
-    <hyperlink ref="J4" r:id="rId10" xr:uid="{E9428CC5-98A4-448F-9F6E-33BB015E0B73}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{C627E4FA-846D-48D7-9DA6-85BC5F96D31A}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{E6CB6329-0506-48C5-9928-178E1AD8F106}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{852F680E-CFB2-42AB-B960-FB1188F024EF}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{51376F35-966C-4A32-9B84-466AD25182FF}"/>
-    <hyperlink ref="I10" r:id="rId15" xr:uid="{2A4E6B55-B2EE-4DC3-9818-29D2E2F858F5}"/>
-    <hyperlink ref="J10" r:id="rId16" xr:uid="{56D1A342-6FBB-4AD7-AE24-4E1D8D103162}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{F187FFE1-11F7-47C3-935C-5E19FF8DA8BE}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{3913039E-A46A-4032-94B7-4D0E01209FBD}"/>
-    <hyperlink ref="J12" r:id="rId19" xr:uid="{F150D327-C5AC-44F2-9D4C-ADAB4FBF24E4}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{6D5C80BD-1AF5-492F-B008-2586E8B287BC}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{23EE28BF-ABCA-4E5B-9E22-5F318B026B68}"/>
-    <hyperlink ref="D43" r:id="rId22" xr:uid="{D01EF939-C03E-43FE-ABBA-0CABC62ED8E9}"/>
-    <hyperlink ref="I20" r:id="rId23" xr:uid="{263436C1-DBAB-4054-83CB-977A1D7E186D}"/>
-    <hyperlink ref="J20" r:id="rId24" xr:uid="{BC064E42-2AB4-4FE2-B006-37F14C563692}"/>
-    <hyperlink ref="I23" r:id="rId25" xr:uid="{6319A713-6F66-4A70-BB12-C096F45F593D}"/>
-    <hyperlink ref="J43" r:id="rId26" xr:uid="{95372DB9-4706-4EAA-8D4D-B7FC1E99C17B}"/>
-    <hyperlink ref="I43" r:id="rId27" xr:uid="{429C2279-AE2B-4D8C-BB0B-30B2E27C596D}"/>
-    <hyperlink ref="D82" r:id="rId28" display="https://www.graham-center.org/rgc/maps-data-tools/sdi/social-deprivation-index.html" xr:uid="{1204E72F-DF85-413C-A020-8AF038D6D40B}"/>
-    <hyperlink ref="I84" r:id="rId29" xr:uid="{E92844E0-8CD5-4964-86E8-D3C1D1216E76}"/>
-    <hyperlink ref="D6" r:id="rId30" xr:uid="{2DD6B100-B462-470C-BDA1-AC92901D1CA7}"/>
-    <hyperlink ref="I6" r:id="rId31" xr:uid="{54615777-D80E-4BF9-B1BF-1579BD396BE8}"/>
-    <hyperlink ref="J6" r:id="rId32" xr:uid="{96028FE7-C462-4887-8F9A-85507EBD4544}"/>
-    <hyperlink ref="D13" r:id="rId33" xr:uid="{AFE2F65E-3DBB-41C4-9B6C-4E238B4B7CDD}"/>
-    <hyperlink ref="I13" r:id="rId34" xr:uid="{D034A58B-33DA-4AC4-B35F-C12180D29063}"/>
-    <hyperlink ref="D14" r:id="rId35" xr:uid="{D2FB70E6-BA4B-4F3E-AB6B-339B51089DAC}"/>
-    <hyperlink ref="I14" r:id="rId36" xr:uid="{57A5D98B-00AA-4277-B371-81DF2F596DB6}"/>
-    <hyperlink ref="J14" r:id="rId37" xr:uid="{3B0A0B25-728E-4BF0-8413-EB7835519934}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{53E7EF43-E72C-4105-A30D-A2BD2D53FC0E}"/>
-    <hyperlink ref="I80" r:id="rId39" xr:uid="{FA3AE9D2-0B1F-4AFD-8121-62E1F9D2148C}"/>
-    <hyperlink ref="J15" r:id="rId40" xr:uid="{45266854-D034-4401-A6ED-EFE4472B4B1D}"/>
-    <hyperlink ref="D16" r:id="rId41" xr:uid="{B6328F03-3953-4102-BAF4-3F39A7633B0B}"/>
-    <hyperlink ref="I16" r:id="rId42" xr:uid="{C341DE8E-0416-456C-A75D-FE0BD62ECF15}"/>
-    <hyperlink ref="J16" r:id="rId43" xr:uid="{0D3C813E-C08A-47CC-93C7-854AFD2977D4}"/>
-    <hyperlink ref="D17" r:id="rId44" xr:uid="{3496DBD2-5A3B-4585-B364-9F5914D15EFD}"/>
-    <hyperlink ref="I17" r:id="rId45" xr:uid="{05866244-7377-4D74-9CFA-709FD43768BC}"/>
-    <hyperlink ref="J17" r:id="rId46" xr:uid="{A739E388-0D9D-47D4-9313-D0768BE302BC}"/>
-    <hyperlink ref="D18" r:id="rId47" xr:uid="{F4AD13CA-916A-414B-B235-329A91856C52}"/>
-    <hyperlink ref="J18" r:id="rId48" xr:uid="{60B0AD7B-4EB9-46D8-B97D-ED21CB475668}"/>
-    <hyperlink ref="I18" r:id="rId49" xr:uid="{11489CB1-8DC1-442C-97DD-7797C6F95FD9}"/>
-    <hyperlink ref="D19" r:id="rId50" xr:uid="{2C3E34B6-CB95-44C3-8907-701A27A277B6}"/>
-    <hyperlink ref="D21" r:id="rId51" xr:uid="{DDDD9F10-C8A4-4972-B80F-5F6F8CB66A61}"/>
-    <hyperlink ref="D22" r:id="rId52" xr:uid="{4E4B9421-3565-49BE-BA37-17317EB34CFE}"/>
-    <hyperlink ref="I22" r:id="rId53" xr:uid="{90EDD438-A544-4D9D-AFB8-F53B216921ED}"/>
-    <hyperlink ref="D24" r:id="rId54" xr:uid="{64A2F1A7-8787-4FDD-97BC-A5A2ABFBD6B9}"/>
-    <hyperlink ref="D28" r:id="rId55" xr:uid="{B215B42E-8A97-40F8-9C14-16BEC21E9BCE}"/>
-    <hyperlink ref="I28" r:id="rId56" xr:uid="{A72DEE90-1847-47D0-AD76-9E72966AD734}"/>
-    <hyperlink ref="J28" r:id="rId57" xr:uid="{11438C15-4A31-4DAE-8FA5-2B8413768FAA}"/>
-    <hyperlink ref="D29" r:id="rId58" xr:uid="{FA80FEFC-E4F5-4907-9D7A-4506AF3278FD}"/>
-    <hyperlink ref="I29" r:id="rId59" xr:uid="{F4F9E655-2788-4438-BA05-CFD2C7400A1C}"/>
-    <hyperlink ref="D30" r:id="rId60" xr:uid="{91C0B9FC-29D1-4E99-81C5-A7233AC14A0F}"/>
-    <hyperlink ref="I30" r:id="rId61" xr:uid="{322AC159-DA12-4E6C-AE2E-0F184646D177}"/>
-    <hyperlink ref="J30" r:id="rId62" xr:uid="{1668A30A-36E1-4895-9C7F-2F820023013E}"/>
-    <hyperlink ref="D31" r:id="rId63" xr:uid="{F3FF6B3D-CFD5-4865-9527-7FB6B4131DC4}"/>
-    <hyperlink ref="I32" r:id="rId64" xr:uid="{B61F4219-1080-4598-A996-7DE2DBA7E262}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{7F37C6E7-C3E6-4E80-9D77-3FE872BAE4FA}"/>
-    <hyperlink ref="I34" r:id="rId66" xr:uid="{7CD47C66-FBBB-4813-A4F3-ECD2FA60A3B4}"/>
-    <hyperlink ref="D35" r:id="rId67" xr:uid="{397C903E-60DF-4D28-B6BA-F88FAAC04136}"/>
-    <hyperlink ref="I35" r:id="rId68" xr:uid="{B13C0BE5-72E7-4A20-862D-68149B85C39B}"/>
-    <hyperlink ref="D36" r:id="rId69" xr:uid="{F643157A-94B9-4461-AB2F-A02E26EA0416}"/>
-    <hyperlink ref="I36" r:id="rId70" xr:uid="{051DF2B8-FEEF-46B4-8019-9C4293DF0F93}"/>
-    <hyperlink ref="D37" r:id="rId71" xr:uid="{03A99371-0296-4ECE-95B4-2D32DDAD7F4E}"/>
-    <hyperlink ref="I37" r:id="rId72" xr:uid="{BFAC2179-D367-4A51-A182-7D1886C307EC}"/>
-    <hyperlink ref="D40" r:id="rId73" xr:uid="{70502B2E-066A-436B-B451-356B3A41C80F}"/>
-    <hyperlink ref="D42" r:id="rId74" xr:uid="{DD4B024A-9032-45F8-8041-D35F9899118A}"/>
-    <hyperlink ref="D44" r:id="rId75" xr:uid="{A880DD4B-9F8A-498F-9CAE-CE4A98A6FF09}"/>
-    <hyperlink ref="I44" r:id="rId76" xr:uid="{3F747F6C-3979-46AC-B1CD-3A745FE20344}"/>
-    <hyperlink ref="D45" r:id="rId77" xr:uid="{6271C5D9-296F-4F02-A79E-D7BA2104CB2C}"/>
-    <hyperlink ref="D54" r:id="rId78" xr:uid="{A1082804-EC17-49B3-ACC1-7DB8D262D782}"/>
-    <hyperlink ref="D46" r:id="rId79" xr:uid="{02D37769-6F4F-4C80-A000-C9310666BB7A}"/>
-    <hyperlink ref="D47" r:id="rId80" xr:uid="{17E5C29A-5110-4E2A-B719-389E10C8C6F4}"/>
-    <hyperlink ref="D48" r:id="rId81" xr:uid="{742040D4-43D2-420A-BBA5-A7E17132CC33}"/>
-    <hyperlink ref="D49" r:id="rId82" xr:uid="{DD9DED00-CCC9-4660-BDFA-DBAEEE2F425C}"/>
-    <hyperlink ref="D50" r:id="rId83" xr:uid="{E01666F2-CCFB-4F43-A889-3C2CD1C64F16}"/>
-    <hyperlink ref="D51" r:id="rId84" xr:uid="{B75547A9-E65C-47B9-B317-2D7512325E52}"/>
-    <hyperlink ref="D53" r:id="rId85" xr:uid="{CC97681E-B758-435B-AFB1-EC1FFE676D8A}"/>
-    <hyperlink ref="D55" r:id="rId86" xr:uid="{A40E6A83-8B94-4035-953F-BB801943EB0A}"/>
-    <hyperlink ref="I53" r:id="rId87" xr:uid="{8F257734-9FF6-462F-A6DC-A0E6F2DBE450}"/>
-    <hyperlink ref="D68" r:id="rId88" xr:uid="{1157D029-BE63-4E32-89D6-C5AA7ED22D80}"/>
-    <hyperlink ref="J68" r:id="rId89" xr:uid="{CDF24A9E-9381-466B-946A-E042851DDEA8}"/>
-    <hyperlink ref="D85" r:id="rId90" xr:uid="{22C1FB6E-62A3-4EAA-B7D2-9010957BB234}"/>
-    <hyperlink ref="J85" r:id="rId91" xr:uid="{520DB9A2-764B-49B4-BCFF-5DE9A3D502F5}"/>
-    <hyperlink ref="H85" r:id="rId92" xr:uid="{AE6D8613-C2E0-4655-B989-A2E6D42B7962}"/>
-    <hyperlink ref="D86" r:id="rId93" xr:uid="{CAD4FC66-3A2F-4D37-AC2D-0019FF45B7AE}"/>
-    <hyperlink ref="H86" r:id="rId94" xr:uid="{DE572DD0-2175-42B9-B42C-15997216B769}"/>
-    <hyperlink ref="J86" r:id="rId95" xr:uid="{C3BA815D-4553-44C8-9BEC-36B44AAEF65D}"/>
-    <hyperlink ref="D87" r:id="rId96" xr:uid="{191BF7D3-D45F-4EC3-B596-DDFD7E75FFC6}"/>
-    <hyperlink ref="J87" r:id="rId97" xr:uid="{24BB2267-35AB-44C3-9D10-F7C8D11E4B63}"/>
-    <hyperlink ref="D65" r:id="rId98" xr:uid="{BDDB2AB9-EC5D-4BEA-865B-F15E2F915A8B}"/>
-    <hyperlink ref="D77" r:id="rId99" xr:uid="{5495EEB3-618B-415D-BA2C-F8C409DE43C4}"/>
-    <hyperlink ref="J77" r:id="rId100" xr:uid="{D3869861-A756-4C27-9E8B-E1AAFB678848}"/>
-    <hyperlink ref="D61" r:id="rId101" xr:uid="{F596D45D-99C4-44C5-B9E3-F22F3EE405BA}"/>
-    <hyperlink ref="J61" r:id="rId102" xr:uid="{E8029A41-FFC3-463F-A840-1D0FE7638BEA}"/>
-    <hyperlink ref="D59" r:id="rId103" xr:uid="{E5FAAD65-AAE3-41C3-BE45-897105D8D336}"/>
-    <hyperlink ref="D58" r:id="rId104" xr:uid="{04FF5C1C-2CF2-4F95-B844-223EBE3BE799}"/>
-    <hyperlink ref="J58" r:id="rId105" xr:uid="{0D1320F8-6793-46E1-8C90-5F0E30DA6704}"/>
-    <hyperlink ref="D69" r:id="rId106" xr:uid="{A546C4AE-8AFE-4817-9BD9-7EC2D136191B}"/>
-    <hyperlink ref="D56" r:id="rId107" xr:uid="{99955F10-9E74-45AA-BD9C-BE19A4AC3C4E}"/>
-    <hyperlink ref="D76" r:id="rId108" xr:uid="{F468EE4D-11AF-4414-A11B-219DF8927EC9}"/>
-    <hyperlink ref="D74" r:id="rId109" xr:uid="{27CD00D0-0CB4-4BF3-8389-E496C971F624}"/>
-    <hyperlink ref="J74" r:id="rId110" xr:uid="{3DF8AACF-CDCA-46E7-9B5D-A77620E23B0C}"/>
-    <hyperlink ref="D81" r:id="rId111" xr:uid="{D3DE4DF4-E0BF-4898-B5B7-0519A305FFDA}"/>
-    <hyperlink ref="J81" r:id="rId112" xr:uid="{AE09E777-DCA9-44A5-AD15-1E9348732D6B}"/>
-    <hyperlink ref="D94" r:id="rId113" xr:uid="{AD1415D0-A608-4B1E-B5E0-85DD3A9D51DB}"/>
-    <hyperlink ref="I94" r:id="rId114" xr:uid="{E8116AE8-9E80-48C3-A389-6282450E481C}"/>
-    <hyperlink ref="J94" r:id="rId115" xr:uid="{180BF91A-11C9-47C0-8F74-D9A0717651F4}"/>
-    <hyperlink ref="D97" r:id="rId116" xr:uid="{A778AD86-3EAE-4E23-B4BD-A2201D219FF5}"/>
-    <hyperlink ref="J97" r:id="rId117" xr:uid="{F2856950-B900-4689-8484-C89F4ABDFA5E}"/>
-    <hyperlink ref="D88" r:id="rId118" xr:uid="{33C8F19E-812F-47D2-B074-4957014F8DD3}"/>
-    <hyperlink ref="D100" r:id="rId119" xr:uid="{E1C33207-CA6D-49D9-8EAF-BA7BF3B24869}"/>
-    <hyperlink ref="I100" r:id="rId120" xr:uid="{BC3637AB-8A42-4134-9DD4-AF99FEC3BDC2}"/>
-    <hyperlink ref="D60" r:id="rId121" xr:uid="{9B97ACF9-E76E-4E92-B3A0-96FEE94EB235}"/>
-    <hyperlink ref="J60" r:id="rId122" xr:uid="{E8582BC5-D1D1-4737-B58C-90AB3054F572}"/>
-    <hyperlink ref="D62" r:id="rId123" xr:uid="{CD6C41E4-F2E4-408C-A604-EE712C2B59CA}"/>
-    <hyperlink ref="J62" r:id="rId124" xr:uid="{4255D78F-37C6-4990-9558-E8435AC276A5}"/>
-    <hyperlink ref="D90" r:id="rId125" xr:uid="{660FF6B4-D273-4AD7-A377-4B367DF404B5}"/>
-    <hyperlink ref="J79" r:id="rId126" display="https://www.srtr.org/about-the-data/the-srtr-database/" xr:uid="{45E35F31-4DA0-4403-8BBA-7A9CBBD3DCF0}"/>
-    <hyperlink ref="I79" r:id="rId127" xr:uid="{DD2D6375-C451-4912-97AE-ED4E34E9F6C4}"/>
-    <hyperlink ref="D83" r:id="rId128" xr:uid="{DE1EA97C-5966-40E5-A3E4-76EE399A09B7}"/>
-    <hyperlink ref="I83" r:id="rId129" location="download" xr:uid="{5ABDB338-43E6-48DB-BD3C-440612479DFE}"/>
-    <hyperlink ref="I57" r:id="rId130" xr:uid="{029976AA-EA90-4E6B-8474-9DE4D7559F5A}"/>
-    <hyperlink ref="D99" r:id="rId131" xr:uid="{165D8FC6-4F5E-4623-B82A-C7462EF47482}"/>
-    <hyperlink ref="I99" r:id="rId132" xr:uid="{121C25B5-C322-4716-85DB-D71E6DC221BB}"/>
-    <hyperlink ref="D89" r:id="rId133" xr:uid="{F32EF4F1-E83F-40A0-BA3A-2ECB972F0396}"/>
-    <hyperlink ref="I89" r:id="rId134" xr:uid="{4BE5CCCE-F06C-4A53-89E6-0AB8C4071051}"/>
-    <hyperlink ref="D70" r:id="rId135" xr:uid="{E8F6829F-7D1F-4686-A032-FA28519648C2}"/>
-    <hyperlink ref="D64" r:id="rId136" xr:uid="{480EC1C9-C64C-47B9-BF19-65C87664AC35}"/>
-    <hyperlink ref="I64" r:id="rId137" xr:uid="{60A31AFB-C173-4DFA-8883-F70FCF17B869}"/>
-    <hyperlink ref="J64" r:id="rId138" xr:uid="{96A3834B-4758-4F07-A02A-9D76189404D2}"/>
-    <hyperlink ref="D91" r:id="rId139" xr:uid="{61FBAD07-AA8D-4573-B7CF-EA06E785AE52}"/>
-    <hyperlink ref="D95" r:id="rId140" xr:uid="{71C7EA44-EE03-484D-88F6-ECFAB6BB5DB1}"/>
-    <hyperlink ref="D96" r:id="rId141" xr:uid="{A8682898-D597-41DB-981B-6DBEA07FE856}"/>
+    <hyperlink ref="D100" r:id="rId1" xr:uid="{D6CD00FE-1F8A-4E3C-A894-2A6AE7B28F84}"/>
+    <hyperlink ref="J100" r:id="rId2" xr:uid="{F4ADF909-6D91-4992-A5C9-401011AA10FD}"/>
+    <hyperlink ref="I100" r:id="rId3" xr:uid="{F2B4DF6B-9457-410D-A7DE-9A7D5082D094}"/>
+    <hyperlink ref="I74" r:id="rId4" xr:uid="{552EF5FC-469B-455D-A07B-8B39C1DB2B69}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{68581172-FAAE-4086-BB92-B549D67A4272}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{0257253F-2E9B-48E4-9C38-45D1BDA35F50}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{1FA5AC62-07AC-4523-BE85-6BD8705A91CC}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{D7F1A4C3-ED7C-4FF7-A0BE-E3751ECAFA31}"/>
+    <hyperlink ref="I3" r:id="rId9" xr:uid="{116890E1-A672-45DD-BFB5-8FC48D4B0015}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{E9428CC5-98A4-448F-9F6E-33BB015E0B73}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{C627E4FA-846D-48D7-9DA6-85BC5F96D31A}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{E6CB6329-0506-48C5-9928-178E1AD8F106}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{852F680E-CFB2-42AB-B960-FB1188F024EF}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{51376F35-966C-4A32-9B84-466AD25182FF}"/>
+    <hyperlink ref="I9" r:id="rId15" xr:uid="{2A4E6B55-B2EE-4DC3-9818-29D2E2F858F5}"/>
+    <hyperlink ref="J9" r:id="rId16" xr:uid="{56D1A342-6FBB-4AD7-AE24-4E1D8D103162}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{F187FFE1-11F7-47C3-935C-5E19FF8DA8BE}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{3913039E-A46A-4032-94B7-4D0E01209FBD}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{F150D327-C5AC-44F2-9D4C-ADAB4FBF24E4}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{6D5C80BD-1AF5-492F-B008-2586E8B287BC}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{23EE28BF-ABCA-4E5B-9E22-5F318B026B68}"/>
+    <hyperlink ref="D42" r:id="rId22" xr:uid="{D01EF939-C03E-43FE-ABBA-0CABC62ED8E9}"/>
+    <hyperlink ref="I19" r:id="rId23" xr:uid="{263436C1-DBAB-4054-83CB-977A1D7E186D}"/>
+    <hyperlink ref="J19" r:id="rId24" xr:uid="{BC064E42-2AB4-4FE2-B006-37F14C563692}"/>
+    <hyperlink ref="I22" r:id="rId25" xr:uid="{6319A713-6F66-4A70-BB12-C096F45F593D}"/>
+    <hyperlink ref="J42" r:id="rId26" xr:uid="{95372DB9-4706-4EAA-8D4D-B7FC1E99C17B}"/>
+    <hyperlink ref="I42" r:id="rId27" xr:uid="{429C2279-AE2B-4D8C-BB0B-30B2E27C596D}"/>
+    <hyperlink ref="D81" r:id="rId28" display="https://www.graham-center.org/rgc/maps-data-tools/sdi/social-deprivation-index.html" xr:uid="{1204E72F-DF85-413C-A020-8AF038D6D40B}"/>
+    <hyperlink ref="I83" r:id="rId29" xr:uid="{E92844E0-8CD5-4964-86E8-D3C1D1216E76}"/>
+    <hyperlink ref="D5" r:id="rId30" xr:uid="{2DD6B100-B462-470C-BDA1-AC92901D1CA7}"/>
+    <hyperlink ref="I5" r:id="rId31" xr:uid="{54615777-D80E-4BF9-B1BF-1579BD396BE8}"/>
+    <hyperlink ref="J5" r:id="rId32" xr:uid="{96028FE7-C462-4887-8F9A-85507EBD4544}"/>
+    <hyperlink ref="D12" r:id="rId33" xr:uid="{AFE2F65E-3DBB-41C4-9B6C-4E238B4B7CDD}"/>
+    <hyperlink ref="I12" r:id="rId34" xr:uid="{D034A58B-33DA-4AC4-B35F-C12180D29063}"/>
+    <hyperlink ref="D13" r:id="rId35" xr:uid="{D2FB70E6-BA4B-4F3E-AB6B-339B51089DAC}"/>
+    <hyperlink ref="I13" r:id="rId36" xr:uid="{57A5D98B-00AA-4277-B371-81DF2F596DB6}"/>
+    <hyperlink ref="J13" r:id="rId37" xr:uid="{3B0A0B25-728E-4BF0-8413-EB7835519934}"/>
+    <hyperlink ref="D79" r:id="rId38" xr:uid="{53E7EF43-E72C-4105-A30D-A2BD2D53FC0E}"/>
+    <hyperlink ref="I79" r:id="rId39" xr:uid="{FA3AE9D2-0B1F-4AFD-8121-62E1F9D2148C}"/>
+    <hyperlink ref="J14" r:id="rId40" xr:uid="{45266854-D034-4401-A6ED-EFE4472B4B1D}"/>
+    <hyperlink ref="D15" r:id="rId41" xr:uid="{B6328F03-3953-4102-BAF4-3F39A7633B0B}"/>
+    <hyperlink ref="I15" r:id="rId42" xr:uid="{C341DE8E-0416-456C-A75D-FE0BD62ECF15}"/>
+    <hyperlink ref="J15" r:id="rId43" xr:uid="{0D3C813E-C08A-47CC-93C7-854AFD2977D4}"/>
+    <hyperlink ref="D16" r:id="rId44" xr:uid="{3496DBD2-5A3B-4585-B364-9F5914D15EFD}"/>
+    <hyperlink ref="I16" r:id="rId45" xr:uid="{05866244-7377-4D74-9CFA-709FD43768BC}"/>
+    <hyperlink ref="J16" r:id="rId46" xr:uid="{A739E388-0D9D-47D4-9313-D0768BE302BC}"/>
+    <hyperlink ref="D17" r:id="rId47" xr:uid="{F4AD13CA-916A-414B-B235-329A91856C52}"/>
+    <hyperlink ref="J17" r:id="rId48" xr:uid="{60B0AD7B-4EB9-46D8-B97D-ED21CB475668}"/>
+    <hyperlink ref="I17" r:id="rId49" xr:uid="{11489CB1-8DC1-442C-97DD-7797C6F95FD9}"/>
+    <hyperlink ref="D18" r:id="rId50" xr:uid="{2C3E34B6-CB95-44C3-8907-701A27A277B6}"/>
+    <hyperlink ref="D20" r:id="rId51" xr:uid="{DDDD9F10-C8A4-4972-B80F-5F6F8CB66A61}"/>
+    <hyperlink ref="D21" r:id="rId52" xr:uid="{4E4B9421-3565-49BE-BA37-17317EB34CFE}"/>
+    <hyperlink ref="I21" r:id="rId53" xr:uid="{90EDD438-A544-4D9D-AFB8-F53B216921ED}"/>
+    <hyperlink ref="D23" r:id="rId54" xr:uid="{64A2F1A7-8787-4FDD-97BC-A5A2ABFBD6B9}"/>
+    <hyperlink ref="D27" r:id="rId55" xr:uid="{B215B42E-8A97-40F8-9C14-16BEC21E9BCE}"/>
+    <hyperlink ref="I27" r:id="rId56" xr:uid="{A72DEE90-1847-47D0-AD76-9E72966AD734}"/>
+    <hyperlink ref="J27" r:id="rId57" xr:uid="{11438C15-4A31-4DAE-8FA5-2B8413768FAA}"/>
+    <hyperlink ref="D28" r:id="rId58" xr:uid="{FA80FEFC-E4F5-4907-9D7A-4506AF3278FD}"/>
+    <hyperlink ref="I28" r:id="rId59" xr:uid="{F4F9E655-2788-4438-BA05-CFD2C7400A1C}"/>
+    <hyperlink ref="D29" r:id="rId60" xr:uid="{91C0B9FC-29D1-4E99-81C5-A7233AC14A0F}"/>
+    <hyperlink ref="I29" r:id="rId61" xr:uid="{322AC159-DA12-4E6C-AE2E-0F184646D177}"/>
+    <hyperlink ref="J29" r:id="rId62" xr:uid="{1668A30A-36E1-4895-9C7F-2F820023013E}"/>
+    <hyperlink ref="D30" r:id="rId63" xr:uid="{F3FF6B3D-CFD5-4865-9527-7FB6B4131DC4}"/>
+    <hyperlink ref="I31" r:id="rId64" xr:uid="{B61F4219-1080-4598-A996-7DE2DBA7E262}"/>
+    <hyperlink ref="D33" r:id="rId65" xr:uid="{7F37C6E7-C3E6-4E80-9D77-3FE872BAE4FA}"/>
+    <hyperlink ref="I33" r:id="rId66" xr:uid="{7CD47C66-FBBB-4813-A4F3-ECD2FA60A3B4}"/>
+    <hyperlink ref="D34" r:id="rId67" xr:uid="{397C903E-60DF-4D28-B6BA-F88FAAC04136}"/>
+    <hyperlink ref="I34" r:id="rId68" xr:uid="{B13C0BE5-72E7-4A20-862D-68149B85C39B}"/>
+    <hyperlink ref="D35" r:id="rId69" xr:uid="{F643157A-94B9-4461-AB2F-A02E26EA0416}"/>
+    <hyperlink ref="I35" r:id="rId70" xr:uid="{051DF2B8-FEEF-46B4-8019-9C4293DF0F93}"/>
+    <hyperlink ref="D36" r:id="rId71" xr:uid="{03A99371-0296-4ECE-95B4-2D32DDAD7F4E}"/>
+    <hyperlink ref="I36" r:id="rId72" xr:uid="{BFAC2179-D367-4A51-A182-7D1886C307EC}"/>
+    <hyperlink ref="D39" r:id="rId73" xr:uid="{70502B2E-066A-436B-B451-356B3A41C80F}"/>
+    <hyperlink ref="D41" r:id="rId74" xr:uid="{DD4B024A-9032-45F8-8041-D35F9899118A}"/>
+    <hyperlink ref="D43" r:id="rId75" xr:uid="{A880DD4B-9F8A-498F-9CAE-CE4A98A6FF09}"/>
+    <hyperlink ref="I43" r:id="rId76" xr:uid="{3F747F6C-3979-46AC-B1CD-3A745FE20344}"/>
+    <hyperlink ref="D44" r:id="rId77" xr:uid="{6271C5D9-296F-4F02-A79E-D7BA2104CB2C}"/>
+    <hyperlink ref="D53" r:id="rId78" xr:uid="{A1082804-EC17-49B3-ACC1-7DB8D262D782}"/>
+    <hyperlink ref="D45" r:id="rId79" xr:uid="{02D37769-6F4F-4C80-A000-C9310666BB7A}"/>
+    <hyperlink ref="D46" r:id="rId80" xr:uid="{17E5C29A-5110-4E2A-B719-389E10C8C6F4}"/>
+    <hyperlink ref="D47" r:id="rId81" xr:uid="{742040D4-43D2-420A-BBA5-A7E17132CC33}"/>
+    <hyperlink ref="D48" r:id="rId82" xr:uid="{DD9DED00-CCC9-4660-BDFA-DBAEEE2F425C}"/>
+    <hyperlink ref="D49" r:id="rId83" xr:uid="{E01666F2-CCFB-4F43-A889-3C2CD1C64F16}"/>
+    <hyperlink ref="D50" r:id="rId84" xr:uid="{B75547A9-E65C-47B9-B317-2D7512325E52}"/>
+    <hyperlink ref="D52" r:id="rId85" xr:uid="{CC97681E-B758-435B-AFB1-EC1FFE676D8A}"/>
+    <hyperlink ref="D54" r:id="rId86" xr:uid="{A40E6A83-8B94-4035-953F-BB801943EB0A}"/>
+    <hyperlink ref="I52" r:id="rId87" xr:uid="{8F257734-9FF6-462F-A6DC-A0E6F2DBE450}"/>
+    <hyperlink ref="D67" r:id="rId88" xr:uid="{1157D029-BE63-4E32-89D6-C5AA7ED22D80}"/>
+    <hyperlink ref="J67" r:id="rId89" xr:uid="{CDF24A9E-9381-466B-946A-E042851DDEA8}"/>
+    <hyperlink ref="D84" r:id="rId90" xr:uid="{22C1FB6E-62A3-4EAA-B7D2-9010957BB234}"/>
+    <hyperlink ref="J84" r:id="rId91" xr:uid="{520DB9A2-764B-49B4-BCFF-5DE9A3D502F5}"/>
+    <hyperlink ref="H84" r:id="rId92" xr:uid="{AE6D8613-C2E0-4655-B989-A2E6D42B7962}"/>
+    <hyperlink ref="D85" r:id="rId93" xr:uid="{CAD4FC66-3A2F-4D37-AC2D-0019FF45B7AE}"/>
+    <hyperlink ref="H85" r:id="rId94" xr:uid="{DE572DD0-2175-42B9-B42C-15997216B769}"/>
+    <hyperlink ref="J85" r:id="rId95" xr:uid="{C3BA815D-4553-44C8-9BEC-36B44AAEF65D}"/>
+    <hyperlink ref="D86" r:id="rId96" xr:uid="{191BF7D3-D45F-4EC3-B596-DDFD7E75FFC6}"/>
+    <hyperlink ref="J86" r:id="rId97" xr:uid="{24BB2267-35AB-44C3-9D10-F7C8D11E4B63}"/>
+    <hyperlink ref="D64" r:id="rId98" xr:uid="{BDDB2AB9-EC5D-4BEA-865B-F15E2F915A8B}"/>
+    <hyperlink ref="D76" r:id="rId99" xr:uid="{5495EEB3-618B-415D-BA2C-F8C409DE43C4}"/>
+    <hyperlink ref="J76" r:id="rId100" xr:uid="{D3869861-A756-4C27-9E8B-E1AAFB678848}"/>
+    <hyperlink ref="D60" r:id="rId101" xr:uid="{F596D45D-99C4-44C5-B9E3-F22F3EE405BA}"/>
+    <hyperlink ref="J60" r:id="rId102" xr:uid="{E8029A41-FFC3-463F-A840-1D0FE7638BEA}"/>
+    <hyperlink ref="D58" r:id="rId103" xr:uid="{E5FAAD65-AAE3-41C3-BE45-897105D8D336}"/>
+    <hyperlink ref="D57" r:id="rId104" xr:uid="{04FF5C1C-2CF2-4F95-B844-223EBE3BE799}"/>
+    <hyperlink ref="J57" r:id="rId105" xr:uid="{0D1320F8-6793-46E1-8C90-5F0E30DA6704}"/>
+    <hyperlink ref="D68" r:id="rId106" xr:uid="{A546C4AE-8AFE-4817-9BD9-7EC2D136191B}"/>
+    <hyperlink ref="D55" r:id="rId107" xr:uid="{99955F10-9E74-45AA-BD9C-BE19A4AC3C4E}"/>
+    <hyperlink ref="D75" r:id="rId108" xr:uid="{F468EE4D-11AF-4414-A11B-219DF8927EC9}"/>
+    <hyperlink ref="D73" r:id="rId109" xr:uid="{27CD00D0-0CB4-4BF3-8389-E496C971F624}"/>
+    <hyperlink ref="J73" r:id="rId110" xr:uid="{3DF8AACF-CDCA-46E7-9B5D-A77620E23B0C}"/>
+    <hyperlink ref="D80" r:id="rId111" xr:uid="{D3DE4DF4-E0BF-4898-B5B7-0519A305FFDA}"/>
+    <hyperlink ref="J80" r:id="rId112" xr:uid="{AE09E777-DCA9-44A5-AD15-1E9348732D6B}"/>
+    <hyperlink ref="D93" r:id="rId113" xr:uid="{AD1415D0-A608-4B1E-B5E0-85DD3A9D51DB}"/>
+    <hyperlink ref="I93" r:id="rId114" xr:uid="{E8116AE8-9E80-48C3-A389-6282450E481C}"/>
+    <hyperlink ref="J93" r:id="rId115" xr:uid="{180BF91A-11C9-47C0-8F74-D9A0717651F4}"/>
+    <hyperlink ref="D96" r:id="rId116" xr:uid="{A778AD86-3EAE-4E23-B4BD-A2201D219FF5}"/>
+    <hyperlink ref="J96" r:id="rId117" xr:uid="{F2856950-B900-4689-8484-C89F4ABDFA5E}"/>
+    <hyperlink ref="D87" r:id="rId118" xr:uid="{33C8F19E-812F-47D2-B074-4957014F8DD3}"/>
+    <hyperlink ref="D99" r:id="rId119" xr:uid="{E1C33207-CA6D-49D9-8EAF-BA7BF3B24869}"/>
+    <hyperlink ref="I99" r:id="rId120" xr:uid="{BC3637AB-8A42-4134-9DD4-AF99FEC3BDC2}"/>
+    <hyperlink ref="D59" r:id="rId121" xr:uid="{9B97ACF9-E76E-4E92-B3A0-96FEE94EB235}"/>
+    <hyperlink ref="J59" r:id="rId122" xr:uid="{E8582BC5-D1D1-4737-B58C-90AB3054F572}"/>
+    <hyperlink ref="D61" r:id="rId123" xr:uid="{CD6C41E4-F2E4-408C-A604-EE712C2B59CA}"/>
+    <hyperlink ref="J61" r:id="rId124" xr:uid="{4255D78F-37C6-4990-9558-E8435AC276A5}"/>
+    <hyperlink ref="D89" r:id="rId125" xr:uid="{660FF6B4-D273-4AD7-A377-4B367DF404B5}"/>
+    <hyperlink ref="J78" r:id="rId126" display="https://www.srtr.org/about-the-data/the-srtr-database/" xr:uid="{45E35F31-4DA0-4403-8BBA-7A9CBBD3DCF0}"/>
+    <hyperlink ref="I78" r:id="rId127" xr:uid="{DD2D6375-C451-4912-97AE-ED4E34E9F6C4}"/>
+    <hyperlink ref="D82" r:id="rId128" xr:uid="{DE1EA97C-5966-40E5-A3E4-76EE399A09B7}"/>
+    <hyperlink ref="I82" r:id="rId129" location="download" xr:uid="{5ABDB338-43E6-48DB-BD3C-440612479DFE}"/>
+    <hyperlink ref="I56" r:id="rId130" xr:uid="{029976AA-EA90-4E6B-8474-9DE4D7559F5A}"/>
+    <hyperlink ref="D98" r:id="rId131" xr:uid="{165D8FC6-4F5E-4623-B82A-C7462EF47482}"/>
+    <hyperlink ref="I98" r:id="rId132" xr:uid="{121C25B5-C322-4716-85DB-D71E6DC221BB}"/>
+    <hyperlink ref="D88" r:id="rId133" xr:uid="{F32EF4F1-E83F-40A0-BA3A-2ECB972F0396}"/>
+    <hyperlink ref="I88" r:id="rId134" xr:uid="{4BE5CCCE-F06C-4A53-89E6-0AB8C4071051}"/>
+    <hyperlink ref="D69" r:id="rId135" xr:uid="{E8F6829F-7D1F-4686-A032-FA28519648C2}"/>
+    <hyperlink ref="D63" r:id="rId136" xr:uid="{480EC1C9-C64C-47B9-BF19-65C87664AC35}"/>
+    <hyperlink ref="I63" r:id="rId137" xr:uid="{60A31AFB-C173-4DFA-8883-F70FCF17B869}"/>
+    <hyperlink ref="J63" r:id="rId138" xr:uid="{96A3834B-4758-4F07-A02A-9D76189404D2}"/>
+    <hyperlink ref="D90" r:id="rId139" xr:uid="{61FBAD07-AA8D-4573-B7CF-EA06E785AE52}"/>
+    <hyperlink ref="D94" r:id="rId140" xr:uid="{71C7EA44-EE03-484D-88F6-ECFAB6BB5DB1}"/>
+    <hyperlink ref="D95" r:id="rId141" xr:uid="{A8682898-D597-41DB-981B-6DBEA07FE856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId142"/>

--- a/database list.xlsx
+++ b/database list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LopezmRo\Documents\dev\researchDatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8432FA9-3777-40E8-B3CC-3E664BB7E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA665C-60EA-4231-9FB2-066DF9085A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{6B7170F7-879C-467E-A32F-F362A164B79E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1006">
   <si>
     <t>Website</t>
   </si>
@@ -228,9 +228,6 @@
 *	Data sources used to generate the 2017 release measures include Behavioral Risk Factor Surveillance System (BRFSS) data (2015, 2014), Census Bureau 2010 census population data, and American Community Survey (ACS) 2011-2015, 2010-2014 estimates. 
 *	Includes data from 500 cities consisting of ~28,000 census tracts. The number of cities per state ranges from 1 to 121. 
 *	The project includes a total population of 103,020,808, which represents 33.4% of the total United States population of 308,745,538.</t>
-  </si>
-  <si>
-    <t>https://chronicdata.cdc.gov/500-Cities-Places/500-Cities-Local-Data-for-Better- Health-2019-relea/6vp6-wxuq</t>
   </si>
   <si>
     <t>Free for download</t>
@@ -3585,6 +3582,49 @@
   </si>
   <si>
     <t>* Replaced by the [PLACES Project](https://cu-anschutz-dos-corp.github.io/researchDatabases/places-local-data-for-better-health.html) on Dec. 2020</t>
+  </si>
+  <si>
+    <t>Center for Improving Value in Health Care</t>
+  </si>
+  <si>
+    <t>https://civhc.org/get-data/whats-in-the-co-apcd/</t>
+  </si>
+  <si>
+    <t>* Comprehensive database comprising medical, dental, and pharmacy claims from various payers.
+* Captures longitudinal care information on individual and spans diverse care settings.
+* Contains demographic, diagnostic, procedural &amp; reimbursement information (total charges, plan paid, and patient responsibility).
+* Useful for policy, research, clinical and health system performance, evaluation, population health management, system redesign, payment reform, and more.</t>
+  </si>
+  <si>
+    <t>2013 - present (1-2 years lag)</t>
+  </si>
+  <si>
+    <t>Claim event</t>
+  </si>
+  <si>
+    <t>* Over 1 billion claims from 40 commercial payers + Medicare &amp; Medicaid (FFS/Advantage)
+* Covers about 70% of Covered Lives in Colorado (medical only)</t>
+  </si>
+  <si>
+    <t>* Both public-use data and licensed data available
+* Does not include Federal Programs (VA, Tricare, Indian Health Services), majority of ERISA-based self-insured empolyers, uninsured and self-pay claims</t>
+  </si>
+  <si>
+    <t>* Public Data: https://civhc.org/get-data/public-data/
+* Licensed Data: https://civhc.org/get-data/non-public-data/</t>
+  </si>
+  <si>
+    <t>* Public Data reports can be accessed free of charge.
+* Licensed Data pricing: https://civhc.org/wp-content/uploads/2022/07/Non-Public-Data-Release-Options.pdf</t>
+  </si>
+  <si>
+    <t>COAPCD</t>
+  </si>
+  <si>
+    <t>Colorado All Payer Claims Database (CO APCD)</t>
+  </si>
+  <si>
+    <t>https://chronicdata.cdc.gov/500-Cities-Places/500-Cities-Local-Data-for-Better-Health-2019-relea/6vp6-wxuq</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3762,12 +3802,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3808,9 +3861,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3819,9 +3869,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3850,10 +3897,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4230,6 +4298,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12E902A2-9FAC-40AD-A7BC-7C3487EE44A8}" name="Table2" displayName="Table2" ref="A1:O100" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <autoFilter ref="A1:O100" xr:uid="{12E902A2-9FAC-40AD-A7BC-7C3487EE44A8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O100">
+    <sortCondition ref="B1:B100"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="15" xr3:uid="{236955F5-E70F-4F6E-B8DA-58302B7BC757}" name="Acronym" dataDxfId="14"/>
     <tableColumn id="1" xr3:uid="{22299E4C-D902-4E9B-B7B3-5B71BAAD7527}" name="Database" dataDxfId="13"/>
@@ -4548,13 +4619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942255B4-E83D-43E6-AC79-6346CF95D73B}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,34 +4685,34 @@
     </row>
     <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>18</v>
@@ -4653,7 +4724,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="8">
         <v>44958</v>
@@ -4661,34 +4732,34 @@
     </row>
     <row r="3" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>18</v>
@@ -4702,37 +4773,37 @@
     </row>
     <row r="4" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -4747,37 +4818,37 @@
     </row>
     <row r="5" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>12</v>
@@ -4786,42 +4857,42 @@
         <v>12</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="15">
+        <v>97</v>
+      </c>
+      <c r="O5" s="14">
         <v>44974</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>18</v>
@@ -4833,7 +4904,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="8">
         <v>44958</v>
@@ -4841,187 +4912,187 @@
     </row>
     <row r="7" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="O7" s="8">
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="O8" s="8">
         <v>44971</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="14">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O9" s="15">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="O10" s="8">
         <v>44971</v>
@@ -5029,32 +5100,32 @@
     </row>
     <row r="11" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
@@ -5066,7 +5137,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O11" s="8">
         <v>44971</v>
@@ -5074,34 +5145,34 @@
     </row>
     <row r="12" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>18</v>
@@ -5119,34 +5190,34 @@
     </row>
     <row r="13" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>18</v>
@@ -5158,7 +5229,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O13" s="8">
         <v>44974</v>
@@ -5166,37 +5237,37 @@
     </row>
     <row r="14" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5205,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O14" s="8">
         <v>44974</v>
@@ -5213,46 +5284,46 @@
     </row>
     <row r="15" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="O15" s="8">
         <v>44974</v>
@@ -5260,46 +5331,46 @@
     </row>
     <row r="16" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="O16" s="8">
         <v>44999</v>
@@ -5307,601 +5378,601 @@
     </row>
     <row r="17" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="O17" s="8">
         <v>44999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="8">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I19" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="7" t="s">
+      <c r="O19" s="8">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="O18" s="8">
+      <c r="B20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2019</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="O20" s="14">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="20">
         <v>44999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2019</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="O19" s="15">
+    <row r="22" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="O22" s="8">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="O23" s="14">
         <v>44971</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="O20" s="22">
+    <row r="24" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" s="8">
         <v>44999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="171" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="O21" s="8">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2020</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O22" s="15">
+    <row r="25" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="O25" s="8">
         <v>44971</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="O23" s="8">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="171" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="7" t="s">
+    <row r="26" spans="1:15" ht="313.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O24" s="8">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="313.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J26" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="7" t="s">
+      <c r="O26" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="O25" s="8">
+      <c r="B27" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="O27" s="20">
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="7" t="s">
+    <row r="28" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="O26" s="22">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D28" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E28" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I28" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="O27" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="356.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="O28" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="356.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>345</v>
+        <v>333</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -5910,45 +5981,45 @@
         <v>30</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="O29" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>30</v>
@@ -5956,459 +6027,461 @@
       <c r="M30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="O30" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="228" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>366</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N31" s="7"/>
       <c r="O31" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="O32" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="D33" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="J33" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" s="16" t="s">
+      <c r="L33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="O33" s="23">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="O32" s="25">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="114" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="O33" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="O34" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O35" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C36" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="E36" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I36" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="J36" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="14">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O35" s="15">
+      <c r="B37" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="O37" s="14">
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="7" t="s">
+    <row r="38" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="O36" s="15">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="171" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="O37" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O38" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N39" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="O39" s="8">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="O38" s="8">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C40" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="E40" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I40" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J40" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="K40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>30</v>
@@ -6416,187 +6489,185 @@
       <c r="M40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C42" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D42" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E42" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="7" t="s">
+      <c r="O42" s="14">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="O41" s="15">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D43" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E43" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F43" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F42" s="7">
-        <v>2018</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="I43" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N42" s="7" t="s">
+      <c r="O43" s="14">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="O42" s="15">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E44" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F44" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G44" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I44" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O43" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>30</v>
@@ -6605,186 +6676,186 @@
         <v>30</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="O44" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>483</v>
+    <row r="45" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="13" t="s">
-        <v>151</v>
+        <v>472</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="O45" s="8">
         <v>45000</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>493</v>
+      <c r="A46" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>482</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>501</v>
+        <v>483</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="O46" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>56</v>
+        <v>499</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="O47" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>515</v>
+        <v>507</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>30</v>
@@ -6793,324 +6864,324 @@
         <v>30</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="O48" s="8">
         <v>45000</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O49" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C50" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D50" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E50" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="O49" s="8">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>541</v>
+        <v>30</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>542</v>
+        <v>30</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="O50" s="8">
         <v>45005</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>33</v>
+        <v>530</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>47</v>
+        <v>532</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>533</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>22</v>
+        <v>535</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>23</v>
+        <v>536</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>37</v>
+        <v>540</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>37</v>
+        <v>541</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>41</v>
+        <v>542</v>
       </c>
       <c r="O51" s="8">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>546</v>
+      <c r="D52" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>547</v>
+        <v>39</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>548</v>
+        <v>22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>549</v>
+        <v>23</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>551</v>
+        <v>40</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>552</v>
+        <v>25</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="171" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="O53" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J54" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" s="7" t="s">
+      <c r="O54" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="O53" s="8">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C55" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D55" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E55" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="O54" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="114" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>18</v>
@@ -7121,137 +7192,137 @@
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="7" t="s">
+        <v>570</v>
+      </c>
       <c r="O55" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="O56" s="8">
         <v>45012</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="228" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="57" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="G57" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K57" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M56" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="O56" s="8">
+      <c r="N57" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="O57" s="8">
         <v>44939</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="O57" s="8">
-        <v>45008</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>596</v>
-      </c>
       <c r="E58" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>599</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="K58" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L58" s="7" t="s">
@@ -7261,231 +7332,231 @@
         <v>30</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O58" s="8">
         <v>45008</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="O59" s="8">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C60" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="E60" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G60" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H59" s="7" t="s">
+      <c r="I60" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="K60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" s="7" t="s">
+      <c r="O60" s="8">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="O59" s="8">
+      <c r="B61" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="O61" s="8">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="O62" s="8">
         <v>45019</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="O60" s="8">
-        <v>45008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="7" t="s">
+    <row r="63" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="O61" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="228" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C63" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O62" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>643</v>
-      </c>
       <c r="K63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>30</v>
@@ -7494,375 +7565,375 @@
         <v>30</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>644</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="O64" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="E65" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="7" t="s">
+      <c r="M65" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="N65" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="M64" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="N64" s="7" t="s">
+      <c r="O65" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="270.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="O64" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="270.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C66" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="O65" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>666</v>
+        <v>300</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="O66" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="O67" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C68" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D68" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="E68" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="J68" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="O67" s="8">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M68" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="O68" s="8">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="8">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C70" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="E70" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O69" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>707</v>
-      </c>
       <c r="J70" s="7" t="s">
-        <v>708</v>
+        <v>260</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>422</v>
+        <v>55</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>423</v>
+        <v>30</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>709</v>
+        <v>150</v>
       </c>
       <c r="O70" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>714</v>
+        <v>638</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="K71" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="O71" s="8">
         <v>45044</v>
@@ -7870,653 +7941,653 @@
     </row>
     <row r="72" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>187</v>
+        <v>713</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>418</v>
+        <v>714</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="K72" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="O72" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>731</v>
+        <v>14</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>721</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>733</v>
+        <v>186</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>734</v>
+        <v>417</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>737</v>
+        <v>724</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>725</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>18</v>
+        <v>421</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>738</v>
+        <v>422</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>739</v>
+        <v>12</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="O73" s="8">
-        <v>45012</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="O74" s="8">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E75" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="I75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J74" s="1" t="s">
+      <c r="K75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="K74" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="7" t="s">
+      <c r="O75" s="8">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="O74" s="8">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C76" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D76" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="E76" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="I76" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="J76" s="12" t="s">
         <v>758</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="O75" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>769</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N76" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>759</v>
+      </c>
       <c r="O76" s="8">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="327.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="7"/>
+      <c r="O77" s="8">
         <v>45006</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="78" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C78" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D78" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="E78" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F78" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="G78" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="K78" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="K77" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N77" s="7" t="s">
+      <c r="O78" s="8">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="O77" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C79" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D79" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="I79" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J79" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="K79" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="K78" s="29" t="s">
+      <c r="L79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N78" s="7" t="s">
+      <c r="O79" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="O78" s="8">
+      <c r="B80" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="O80" s="8">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="7"/>
+      <c r="O81" s="20">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="O82" s="14">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O83" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="O79" s="8">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N80" s="7"/>
-      <c r="O80" s="22">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="O81" s="15">
+    <row r="84" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="O84" s="8">
         <v>44971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O82" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="O83" s="8">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="O84" s="8">
-        <v>45006</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="I85" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="J85" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>860</v>
-      </c>
       <c r="K85" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O85" s="8">
         <v>45006</v>
@@ -8524,711 +8595,758 @@
     </row>
     <row r="86" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>866</v>
+        <v>714</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>858</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="K86" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O86" s="8">
         <v>45006</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>870</v>
+        <v>14</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>873</v>
+        <v>863</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>864</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>874</v>
+        <v>417</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>877</v>
+        <v>848</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>866</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>375</v>
+        <v>850</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>12</v>
+        <v>851</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="O87" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>379</v>
+        <v>869</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>883</v>
+        <v>871</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>872</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>887</v>
+        <v>874</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>876</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>56</v>
+        <v>374</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>151</v>
+        <v>877</v>
       </c>
       <c r="O88" s="8">
-        <v>45044</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>401</v>
+        <v>882</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>127</v>
+        <v>883</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>894</v>
+        <v>884</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>886</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O89" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>991</v>
+        <v>887</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O90" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="D90" s="12" t="s">
+      <c r="E91" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="I91" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="I90" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="K91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="K90" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N90" s="7" t="s">
+      <c r="O91" s="8">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="O90" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C92" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="J92" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N92" s="7" t="s">
         <v>908</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="O91" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="O92" s="8">
         <v>45044</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>924</v>
+        <v>911</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>912</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>926</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>924</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>929</v>
+        <v>915</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>56</v>
+        <v>918</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="O93" s="8">
-        <v>45019</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="114" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="O94" s="8">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="114" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D95" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="E95" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="I95" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="J95" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="K95" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="L95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="7" t="s">
         <v>941</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="O94" s="8">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N95" s="7" t="s">
-        <v>951</v>
       </c>
       <c r="O95" s="8">
         <v>45047</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="O96" s="8">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="171" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C97" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D97" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="E97" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F97" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="J97" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="K97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O97" s="8">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="K96" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O96" s="8">
+      <c r="B98" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N98" s="7"/>
+      <c r="O98" s="8">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="F99" s="7">
+        <v>2019</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>973</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O99" s="8">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="J100" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="K100" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N100" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O100" s="29">
         <v>45019</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="7"/>
-      <c r="O97" s="8">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>975</v>
-      </c>
-      <c r="F98" s="7">
-        <v>2019</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N98" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O98" s="8">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>985</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="J99" s="7" t="s">
+    <row r="101" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="K99" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N99" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O99" s="8">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I101" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J101" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K100" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N100" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="O100" s="8">
+      <c r="L101" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="O101" s="8">
         <v>44958</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D100" r:id="rId1" xr:uid="{D6CD00FE-1F8A-4E3C-A894-2A6AE7B28F84}"/>
-    <hyperlink ref="J100" r:id="rId2" xr:uid="{F4ADF909-6D91-4992-A5C9-401011AA10FD}"/>
-    <hyperlink ref="I100" r:id="rId3" xr:uid="{F2B4DF6B-9457-410D-A7DE-9A7D5082D094}"/>
-    <hyperlink ref="I74" r:id="rId4" xr:uid="{552EF5FC-469B-455D-A07B-8B39C1DB2B69}"/>
+    <hyperlink ref="D101" r:id="rId1" xr:uid="{D6CD00FE-1F8A-4E3C-A894-2A6AE7B28F84}"/>
+    <hyperlink ref="J101" r:id="rId2" xr:uid="{F4ADF909-6D91-4992-A5C9-401011AA10FD}"/>
+    <hyperlink ref="I101" r:id="rId3" xr:uid="{F2B4DF6B-9457-410D-A7DE-9A7D5082D094}"/>
+    <hyperlink ref="I75" r:id="rId4" xr:uid="{552EF5FC-469B-455D-A07B-8B39C1DB2B69}"/>
     <hyperlink ref="I4" r:id="rId5" xr:uid="{68581172-FAAE-4086-BB92-B549D67A4272}"/>
     <hyperlink ref="D2" r:id="rId6" xr:uid="{0257253F-2E9B-48E4-9C38-45D1BDA35F50}"/>
     <hyperlink ref="J2" r:id="rId7" xr:uid="{1FA5AC62-07AC-4523-BE85-6BD8705A91CC}"/>
@@ -9244,16 +9362,16 @@
     <hyperlink ref="D10" r:id="rId17" xr:uid="{F187FFE1-11F7-47C3-935C-5E19FF8DA8BE}"/>
     <hyperlink ref="I10" r:id="rId18" xr:uid="{3913039E-A46A-4032-94B7-4D0E01209FBD}"/>
     <hyperlink ref="J11" r:id="rId19" xr:uid="{F150D327-C5AC-44F2-9D4C-ADAB4FBF24E4}"/>
-    <hyperlink ref="D19" r:id="rId20" xr:uid="{6D5C80BD-1AF5-492F-B008-2586E8B287BC}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{23EE28BF-ABCA-4E5B-9E22-5F318B026B68}"/>
-    <hyperlink ref="D42" r:id="rId22" xr:uid="{D01EF939-C03E-43FE-ABBA-0CABC62ED8E9}"/>
-    <hyperlink ref="I19" r:id="rId23" xr:uid="{263436C1-DBAB-4054-83CB-977A1D7E186D}"/>
-    <hyperlink ref="J19" r:id="rId24" xr:uid="{BC064E42-2AB4-4FE2-B006-37F14C563692}"/>
-    <hyperlink ref="I22" r:id="rId25" xr:uid="{6319A713-6F66-4A70-BB12-C096F45F593D}"/>
-    <hyperlink ref="J42" r:id="rId26" xr:uid="{95372DB9-4706-4EAA-8D4D-B7FC1E99C17B}"/>
-    <hyperlink ref="I42" r:id="rId27" xr:uid="{429C2279-AE2B-4D8C-BB0B-30B2E27C596D}"/>
-    <hyperlink ref="D81" r:id="rId28" display="https://www.graham-center.org/rgc/maps-data-tools/sdi/social-deprivation-index.html" xr:uid="{1204E72F-DF85-413C-A020-8AF038D6D40B}"/>
-    <hyperlink ref="I83" r:id="rId29" xr:uid="{E92844E0-8CD5-4964-86E8-D3C1D1216E76}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{6D5C80BD-1AF5-492F-B008-2586E8B287BC}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{23EE28BF-ABCA-4E5B-9E22-5F318B026B68}"/>
+    <hyperlink ref="D43" r:id="rId22" xr:uid="{D01EF939-C03E-43FE-ABBA-0CABC62ED8E9}"/>
+    <hyperlink ref="I20" r:id="rId23" xr:uid="{263436C1-DBAB-4054-83CB-977A1D7E186D}"/>
+    <hyperlink ref="J20" r:id="rId24" xr:uid="{BC064E42-2AB4-4FE2-B006-37F14C563692}"/>
+    <hyperlink ref="I23" r:id="rId25" xr:uid="{6319A713-6F66-4A70-BB12-C096F45F593D}"/>
+    <hyperlink ref="J43" r:id="rId26" xr:uid="{95372DB9-4706-4EAA-8D4D-B7FC1E99C17B}"/>
+    <hyperlink ref="I43" r:id="rId27" xr:uid="{429C2279-AE2B-4D8C-BB0B-30B2E27C596D}"/>
+    <hyperlink ref="D82" r:id="rId28" display="https://www.graham-center.org/rgc/maps-data-tools/sdi/social-deprivation-index.html" xr:uid="{1204E72F-DF85-413C-A020-8AF038D6D40B}"/>
+    <hyperlink ref="I84" r:id="rId29" xr:uid="{E92844E0-8CD5-4964-86E8-D3C1D1216E76}"/>
     <hyperlink ref="D5" r:id="rId30" xr:uid="{2DD6B100-B462-470C-BDA1-AC92901D1CA7}"/>
     <hyperlink ref="I5" r:id="rId31" xr:uid="{54615777-D80E-4BF9-B1BF-1579BD396BE8}"/>
     <hyperlink ref="J5" r:id="rId32" xr:uid="{96028FE7-C462-4887-8F9A-85507EBD4544}"/>
@@ -9262,8 +9380,8 @@
     <hyperlink ref="D13" r:id="rId35" xr:uid="{D2FB70E6-BA4B-4F3E-AB6B-339B51089DAC}"/>
     <hyperlink ref="I13" r:id="rId36" xr:uid="{57A5D98B-00AA-4277-B371-81DF2F596DB6}"/>
     <hyperlink ref="J13" r:id="rId37" xr:uid="{3B0A0B25-728E-4BF0-8413-EB7835519934}"/>
-    <hyperlink ref="D79" r:id="rId38" xr:uid="{53E7EF43-E72C-4105-A30D-A2BD2D53FC0E}"/>
-    <hyperlink ref="I79" r:id="rId39" xr:uid="{FA3AE9D2-0B1F-4AFD-8121-62E1F9D2148C}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{53E7EF43-E72C-4105-A30D-A2BD2D53FC0E}"/>
+    <hyperlink ref="I80" r:id="rId39" xr:uid="{FA3AE9D2-0B1F-4AFD-8121-62E1F9D2148C}"/>
     <hyperlink ref="J14" r:id="rId40" xr:uid="{45266854-D034-4401-A6ED-EFE4472B4B1D}"/>
     <hyperlink ref="D15" r:id="rId41" xr:uid="{B6328F03-3953-4102-BAF4-3F39A7633B0B}"/>
     <hyperlink ref="I15" r:id="rId42" xr:uid="{C341DE8E-0416-456C-A75D-FE0BD62ECF15}"/>
@@ -9274,98 +9392,98 @@
     <hyperlink ref="D17" r:id="rId47" xr:uid="{F4AD13CA-916A-414B-B235-329A91856C52}"/>
     <hyperlink ref="J17" r:id="rId48" xr:uid="{60B0AD7B-4EB9-46D8-B97D-ED21CB475668}"/>
     <hyperlink ref="I17" r:id="rId49" xr:uid="{11489CB1-8DC1-442C-97DD-7797C6F95FD9}"/>
-    <hyperlink ref="D18" r:id="rId50" xr:uid="{2C3E34B6-CB95-44C3-8907-701A27A277B6}"/>
-    <hyperlink ref="D20" r:id="rId51" xr:uid="{DDDD9F10-C8A4-4972-B80F-5F6F8CB66A61}"/>
-    <hyperlink ref="D21" r:id="rId52" xr:uid="{4E4B9421-3565-49BE-BA37-17317EB34CFE}"/>
-    <hyperlink ref="I21" r:id="rId53" xr:uid="{90EDD438-A544-4D9D-AFB8-F53B216921ED}"/>
-    <hyperlink ref="D23" r:id="rId54" xr:uid="{64A2F1A7-8787-4FDD-97BC-A5A2ABFBD6B9}"/>
-    <hyperlink ref="D27" r:id="rId55" xr:uid="{B215B42E-8A97-40F8-9C14-16BEC21E9BCE}"/>
-    <hyperlink ref="I27" r:id="rId56" xr:uid="{A72DEE90-1847-47D0-AD76-9E72966AD734}"/>
-    <hyperlink ref="J27" r:id="rId57" xr:uid="{11438C15-4A31-4DAE-8FA5-2B8413768FAA}"/>
-    <hyperlink ref="D28" r:id="rId58" xr:uid="{FA80FEFC-E4F5-4907-9D7A-4506AF3278FD}"/>
-    <hyperlink ref="I28" r:id="rId59" xr:uid="{F4F9E655-2788-4438-BA05-CFD2C7400A1C}"/>
-    <hyperlink ref="D29" r:id="rId60" xr:uid="{91C0B9FC-29D1-4E99-81C5-A7233AC14A0F}"/>
-    <hyperlink ref="I29" r:id="rId61" xr:uid="{322AC159-DA12-4E6C-AE2E-0F184646D177}"/>
-    <hyperlink ref="J29" r:id="rId62" xr:uid="{1668A30A-36E1-4895-9C7F-2F820023013E}"/>
-    <hyperlink ref="D30" r:id="rId63" xr:uid="{F3FF6B3D-CFD5-4865-9527-7FB6B4131DC4}"/>
-    <hyperlink ref="I31" r:id="rId64" xr:uid="{B61F4219-1080-4598-A996-7DE2DBA7E262}"/>
-    <hyperlink ref="D33" r:id="rId65" xr:uid="{7F37C6E7-C3E6-4E80-9D77-3FE872BAE4FA}"/>
-    <hyperlink ref="I33" r:id="rId66" xr:uid="{7CD47C66-FBBB-4813-A4F3-ECD2FA60A3B4}"/>
-    <hyperlink ref="D34" r:id="rId67" xr:uid="{397C903E-60DF-4D28-B6BA-F88FAAC04136}"/>
-    <hyperlink ref="I34" r:id="rId68" xr:uid="{B13C0BE5-72E7-4A20-862D-68149B85C39B}"/>
-    <hyperlink ref="D35" r:id="rId69" xr:uid="{F643157A-94B9-4461-AB2F-A02E26EA0416}"/>
-    <hyperlink ref="I35" r:id="rId70" xr:uid="{051DF2B8-FEEF-46B4-8019-9C4293DF0F93}"/>
-    <hyperlink ref="D36" r:id="rId71" xr:uid="{03A99371-0296-4ECE-95B4-2D32DDAD7F4E}"/>
-    <hyperlink ref="I36" r:id="rId72" xr:uid="{BFAC2179-D367-4A51-A182-7D1886C307EC}"/>
-    <hyperlink ref="D39" r:id="rId73" xr:uid="{70502B2E-066A-436B-B451-356B3A41C80F}"/>
-    <hyperlink ref="D41" r:id="rId74" xr:uid="{DD4B024A-9032-45F8-8041-D35F9899118A}"/>
-    <hyperlink ref="D43" r:id="rId75" xr:uid="{A880DD4B-9F8A-498F-9CAE-CE4A98A6FF09}"/>
-    <hyperlink ref="I43" r:id="rId76" xr:uid="{3F747F6C-3979-46AC-B1CD-3A745FE20344}"/>
-    <hyperlink ref="D44" r:id="rId77" xr:uid="{6271C5D9-296F-4F02-A79E-D7BA2104CB2C}"/>
-    <hyperlink ref="D53" r:id="rId78" xr:uid="{A1082804-EC17-49B3-ACC1-7DB8D262D782}"/>
-    <hyperlink ref="D45" r:id="rId79" xr:uid="{02D37769-6F4F-4C80-A000-C9310666BB7A}"/>
-    <hyperlink ref="D46" r:id="rId80" xr:uid="{17E5C29A-5110-4E2A-B719-389E10C8C6F4}"/>
-    <hyperlink ref="D47" r:id="rId81" xr:uid="{742040D4-43D2-420A-BBA5-A7E17132CC33}"/>
-    <hyperlink ref="D48" r:id="rId82" xr:uid="{DD9DED00-CCC9-4660-BDFA-DBAEEE2F425C}"/>
-    <hyperlink ref="D49" r:id="rId83" xr:uid="{E01666F2-CCFB-4F43-A889-3C2CD1C64F16}"/>
-    <hyperlink ref="D50" r:id="rId84" xr:uid="{B75547A9-E65C-47B9-B317-2D7512325E52}"/>
-    <hyperlink ref="D52" r:id="rId85" xr:uid="{CC97681E-B758-435B-AFB1-EC1FFE676D8A}"/>
-    <hyperlink ref="D54" r:id="rId86" xr:uid="{A40E6A83-8B94-4035-953F-BB801943EB0A}"/>
-    <hyperlink ref="I52" r:id="rId87" xr:uid="{8F257734-9FF6-462F-A6DC-A0E6F2DBE450}"/>
-    <hyperlink ref="D67" r:id="rId88" xr:uid="{1157D029-BE63-4E32-89D6-C5AA7ED22D80}"/>
-    <hyperlink ref="J67" r:id="rId89" xr:uid="{CDF24A9E-9381-466B-946A-E042851DDEA8}"/>
-    <hyperlink ref="D84" r:id="rId90" xr:uid="{22C1FB6E-62A3-4EAA-B7D2-9010957BB234}"/>
-    <hyperlink ref="J84" r:id="rId91" xr:uid="{520DB9A2-764B-49B4-BCFF-5DE9A3D502F5}"/>
-    <hyperlink ref="H84" r:id="rId92" xr:uid="{AE6D8613-C2E0-4655-B989-A2E6D42B7962}"/>
-    <hyperlink ref="D85" r:id="rId93" xr:uid="{CAD4FC66-3A2F-4D37-AC2D-0019FF45B7AE}"/>
-    <hyperlink ref="H85" r:id="rId94" xr:uid="{DE572DD0-2175-42B9-B42C-15997216B769}"/>
-    <hyperlink ref="J85" r:id="rId95" xr:uid="{C3BA815D-4553-44C8-9BEC-36B44AAEF65D}"/>
-    <hyperlink ref="D86" r:id="rId96" xr:uid="{191BF7D3-D45F-4EC3-B596-DDFD7E75FFC6}"/>
-    <hyperlink ref="J86" r:id="rId97" xr:uid="{24BB2267-35AB-44C3-9D10-F7C8D11E4B63}"/>
-    <hyperlink ref="D64" r:id="rId98" xr:uid="{BDDB2AB9-EC5D-4BEA-865B-F15E2F915A8B}"/>
-    <hyperlink ref="D76" r:id="rId99" xr:uid="{5495EEB3-618B-415D-BA2C-F8C409DE43C4}"/>
-    <hyperlink ref="J76" r:id="rId100" xr:uid="{D3869861-A756-4C27-9E8B-E1AAFB678848}"/>
-    <hyperlink ref="D60" r:id="rId101" xr:uid="{F596D45D-99C4-44C5-B9E3-F22F3EE405BA}"/>
-    <hyperlink ref="J60" r:id="rId102" xr:uid="{E8029A41-FFC3-463F-A840-1D0FE7638BEA}"/>
-    <hyperlink ref="D58" r:id="rId103" xr:uid="{E5FAAD65-AAE3-41C3-BE45-897105D8D336}"/>
-    <hyperlink ref="D57" r:id="rId104" xr:uid="{04FF5C1C-2CF2-4F95-B844-223EBE3BE799}"/>
-    <hyperlink ref="J57" r:id="rId105" xr:uid="{0D1320F8-6793-46E1-8C90-5F0E30DA6704}"/>
-    <hyperlink ref="D68" r:id="rId106" xr:uid="{A546C4AE-8AFE-4817-9BD9-7EC2D136191B}"/>
-    <hyperlink ref="D55" r:id="rId107" xr:uid="{99955F10-9E74-45AA-BD9C-BE19A4AC3C4E}"/>
-    <hyperlink ref="D75" r:id="rId108" xr:uid="{F468EE4D-11AF-4414-A11B-219DF8927EC9}"/>
-    <hyperlink ref="D73" r:id="rId109" xr:uid="{27CD00D0-0CB4-4BF3-8389-E496C971F624}"/>
-    <hyperlink ref="J73" r:id="rId110" xr:uid="{3DF8AACF-CDCA-46E7-9B5D-A77620E23B0C}"/>
-    <hyperlink ref="D80" r:id="rId111" xr:uid="{D3DE4DF4-E0BF-4898-B5B7-0519A305FFDA}"/>
-    <hyperlink ref="J80" r:id="rId112" xr:uid="{AE09E777-DCA9-44A5-AD15-1E9348732D6B}"/>
-    <hyperlink ref="D93" r:id="rId113" xr:uid="{AD1415D0-A608-4B1E-B5E0-85DD3A9D51DB}"/>
-    <hyperlink ref="I93" r:id="rId114" xr:uid="{E8116AE8-9E80-48C3-A389-6282450E481C}"/>
-    <hyperlink ref="J93" r:id="rId115" xr:uid="{180BF91A-11C9-47C0-8F74-D9A0717651F4}"/>
-    <hyperlink ref="D96" r:id="rId116" xr:uid="{A778AD86-3EAE-4E23-B4BD-A2201D219FF5}"/>
-    <hyperlink ref="J96" r:id="rId117" xr:uid="{F2856950-B900-4689-8484-C89F4ABDFA5E}"/>
-    <hyperlink ref="D87" r:id="rId118" xr:uid="{33C8F19E-812F-47D2-B074-4957014F8DD3}"/>
-    <hyperlink ref="D99" r:id="rId119" xr:uid="{E1C33207-CA6D-49D9-8EAF-BA7BF3B24869}"/>
-    <hyperlink ref="I99" r:id="rId120" xr:uid="{BC3637AB-8A42-4134-9DD4-AF99FEC3BDC2}"/>
-    <hyperlink ref="D59" r:id="rId121" xr:uid="{9B97ACF9-E76E-4E92-B3A0-96FEE94EB235}"/>
-    <hyperlink ref="J59" r:id="rId122" xr:uid="{E8582BC5-D1D1-4737-B58C-90AB3054F572}"/>
-    <hyperlink ref="D61" r:id="rId123" xr:uid="{CD6C41E4-F2E4-408C-A604-EE712C2B59CA}"/>
-    <hyperlink ref="J61" r:id="rId124" xr:uid="{4255D78F-37C6-4990-9558-E8435AC276A5}"/>
-    <hyperlink ref="D89" r:id="rId125" xr:uid="{660FF6B4-D273-4AD7-A377-4B367DF404B5}"/>
-    <hyperlink ref="J78" r:id="rId126" display="https://www.srtr.org/about-the-data/the-srtr-database/" xr:uid="{45E35F31-4DA0-4403-8BBA-7A9CBBD3DCF0}"/>
-    <hyperlink ref="I78" r:id="rId127" xr:uid="{DD2D6375-C451-4912-97AE-ED4E34E9F6C4}"/>
-    <hyperlink ref="D82" r:id="rId128" xr:uid="{DE1EA97C-5966-40E5-A3E4-76EE399A09B7}"/>
-    <hyperlink ref="I82" r:id="rId129" location="download" xr:uid="{5ABDB338-43E6-48DB-BD3C-440612479DFE}"/>
-    <hyperlink ref="I56" r:id="rId130" xr:uid="{029976AA-EA90-4E6B-8474-9DE4D7559F5A}"/>
-    <hyperlink ref="D98" r:id="rId131" xr:uid="{165D8FC6-4F5E-4623-B82A-C7462EF47482}"/>
-    <hyperlink ref="I98" r:id="rId132" xr:uid="{121C25B5-C322-4716-85DB-D71E6DC221BB}"/>
-    <hyperlink ref="D88" r:id="rId133" xr:uid="{F32EF4F1-E83F-40A0-BA3A-2ECB972F0396}"/>
-    <hyperlink ref="I88" r:id="rId134" xr:uid="{4BE5CCCE-F06C-4A53-89E6-0AB8C4071051}"/>
-    <hyperlink ref="D69" r:id="rId135" xr:uid="{E8F6829F-7D1F-4686-A032-FA28519648C2}"/>
-    <hyperlink ref="D63" r:id="rId136" xr:uid="{480EC1C9-C64C-47B9-BF19-65C87664AC35}"/>
-    <hyperlink ref="I63" r:id="rId137" xr:uid="{60A31AFB-C173-4DFA-8883-F70FCF17B869}"/>
-    <hyperlink ref="J63" r:id="rId138" xr:uid="{96A3834B-4758-4F07-A02A-9D76189404D2}"/>
-    <hyperlink ref="D90" r:id="rId139" xr:uid="{61FBAD07-AA8D-4573-B7CF-EA06E785AE52}"/>
-    <hyperlink ref="D94" r:id="rId140" xr:uid="{71C7EA44-EE03-484D-88F6-ECFAB6BB5DB1}"/>
-    <hyperlink ref="D95" r:id="rId141" xr:uid="{A8682898-D597-41DB-981B-6DBEA07FE856}"/>
+    <hyperlink ref="D19" r:id="rId50" xr:uid="{2C3E34B6-CB95-44C3-8907-701A27A277B6}"/>
+    <hyperlink ref="D21" r:id="rId51" xr:uid="{DDDD9F10-C8A4-4972-B80F-5F6F8CB66A61}"/>
+    <hyperlink ref="D22" r:id="rId52" xr:uid="{4E4B9421-3565-49BE-BA37-17317EB34CFE}"/>
+    <hyperlink ref="I22" r:id="rId53" xr:uid="{90EDD438-A544-4D9D-AFB8-F53B216921ED}"/>
+    <hyperlink ref="D24" r:id="rId54" xr:uid="{64A2F1A7-8787-4FDD-97BC-A5A2ABFBD6B9}"/>
+    <hyperlink ref="D28" r:id="rId55" xr:uid="{B215B42E-8A97-40F8-9C14-16BEC21E9BCE}"/>
+    <hyperlink ref="I28" r:id="rId56" xr:uid="{A72DEE90-1847-47D0-AD76-9E72966AD734}"/>
+    <hyperlink ref="J28" r:id="rId57" xr:uid="{11438C15-4A31-4DAE-8FA5-2B8413768FAA}"/>
+    <hyperlink ref="D29" r:id="rId58" xr:uid="{FA80FEFC-E4F5-4907-9D7A-4506AF3278FD}"/>
+    <hyperlink ref="I29" r:id="rId59" xr:uid="{F4F9E655-2788-4438-BA05-CFD2C7400A1C}"/>
+    <hyperlink ref="D30" r:id="rId60" xr:uid="{91C0B9FC-29D1-4E99-81C5-A7233AC14A0F}"/>
+    <hyperlink ref="I30" r:id="rId61" xr:uid="{322AC159-DA12-4E6C-AE2E-0F184646D177}"/>
+    <hyperlink ref="J30" r:id="rId62" xr:uid="{1668A30A-36E1-4895-9C7F-2F820023013E}"/>
+    <hyperlink ref="D31" r:id="rId63" xr:uid="{F3FF6B3D-CFD5-4865-9527-7FB6B4131DC4}"/>
+    <hyperlink ref="I32" r:id="rId64" xr:uid="{B61F4219-1080-4598-A996-7DE2DBA7E262}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{7F37C6E7-C3E6-4E80-9D77-3FE872BAE4FA}"/>
+    <hyperlink ref="I34" r:id="rId66" xr:uid="{7CD47C66-FBBB-4813-A4F3-ECD2FA60A3B4}"/>
+    <hyperlink ref="D35" r:id="rId67" xr:uid="{397C903E-60DF-4D28-B6BA-F88FAAC04136}"/>
+    <hyperlink ref="I35" r:id="rId68" xr:uid="{B13C0BE5-72E7-4A20-862D-68149B85C39B}"/>
+    <hyperlink ref="D36" r:id="rId69" xr:uid="{F643157A-94B9-4461-AB2F-A02E26EA0416}"/>
+    <hyperlink ref="I36" r:id="rId70" xr:uid="{051DF2B8-FEEF-46B4-8019-9C4293DF0F93}"/>
+    <hyperlink ref="D37" r:id="rId71" xr:uid="{03A99371-0296-4ECE-95B4-2D32DDAD7F4E}"/>
+    <hyperlink ref="I37" r:id="rId72" xr:uid="{BFAC2179-D367-4A51-A182-7D1886C307EC}"/>
+    <hyperlink ref="D40" r:id="rId73" xr:uid="{70502B2E-066A-436B-B451-356B3A41C80F}"/>
+    <hyperlink ref="D42" r:id="rId74" xr:uid="{DD4B024A-9032-45F8-8041-D35F9899118A}"/>
+    <hyperlink ref="D44" r:id="rId75" xr:uid="{A880DD4B-9F8A-498F-9CAE-CE4A98A6FF09}"/>
+    <hyperlink ref="I44" r:id="rId76" xr:uid="{3F747F6C-3979-46AC-B1CD-3A745FE20344}"/>
+    <hyperlink ref="D45" r:id="rId77" xr:uid="{6271C5D9-296F-4F02-A79E-D7BA2104CB2C}"/>
+    <hyperlink ref="D54" r:id="rId78" xr:uid="{A1082804-EC17-49B3-ACC1-7DB8D262D782}"/>
+    <hyperlink ref="D46" r:id="rId79" xr:uid="{02D37769-6F4F-4C80-A000-C9310666BB7A}"/>
+    <hyperlink ref="D47" r:id="rId80" xr:uid="{17E5C29A-5110-4E2A-B719-389E10C8C6F4}"/>
+    <hyperlink ref="D48" r:id="rId81" xr:uid="{742040D4-43D2-420A-BBA5-A7E17132CC33}"/>
+    <hyperlink ref="D49" r:id="rId82" xr:uid="{DD9DED00-CCC9-4660-BDFA-DBAEEE2F425C}"/>
+    <hyperlink ref="D50" r:id="rId83" xr:uid="{E01666F2-CCFB-4F43-A889-3C2CD1C64F16}"/>
+    <hyperlink ref="D51" r:id="rId84" xr:uid="{B75547A9-E65C-47B9-B317-2D7512325E52}"/>
+    <hyperlink ref="D53" r:id="rId85" xr:uid="{CC97681E-B758-435B-AFB1-EC1FFE676D8A}"/>
+    <hyperlink ref="D55" r:id="rId86" xr:uid="{A40E6A83-8B94-4035-953F-BB801943EB0A}"/>
+    <hyperlink ref="I53" r:id="rId87" xr:uid="{8F257734-9FF6-462F-A6DC-A0E6F2DBE450}"/>
+    <hyperlink ref="D68" r:id="rId88" xr:uid="{1157D029-BE63-4E32-89D6-C5AA7ED22D80}"/>
+    <hyperlink ref="J68" r:id="rId89" xr:uid="{CDF24A9E-9381-466B-946A-E042851DDEA8}"/>
+    <hyperlink ref="D85" r:id="rId90" xr:uid="{22C1FB6E-62A3-4EAA-B7D2-9010957BB234}"/>
+    <hyperlink ref="J85" r:id="rId91" xr:uid="{520DB9A2-764B-49B4-BCFF-5DE9A3D502F5}"/>
+    <hyperlink ref="H85" r:id="rId92" xr:uid="{AE6D8613-C2E0-4655-B989-A2E6D42B7962}"/>
+    <hyperlink ref="D86" r:id="rId93" xr:uid="{CAD4FC66-3A2F-4D37-AC2D-0019FF45B7AE}"/>
+    <hyperlink ref="H86" r:id="rId94" xr:uid="{DE572DD0-2175-42B9-B42C-15997216B769}"/>
+    <hyperlink ref="J86" r:id="rId95" xr:uid="{C3BA815D-4553-44C8-9BEC-36B44AAEF65D}"/>
+    <hyperlink ref="D87" r:id="rId96" xr:uid="{191BF7D3-D45F-4EC3-B596-DDFD7E75FFC6}"/>
+    <hyperlink ref="J87" r:id="rId97" xr:uid="{24BB2267-35AB-44C3-9D10-F7C8D11E4B63}"/>
+    <hyperlink ref="D65" r:id="rId98" xr:uid="{BDDB2AB9-EC5D-4BEA-865B-F15E2F915A8B}"/>
+    <hyperlink ref="D77" r:id="rId99" xr:uid="{5495EEB3-618B-415D-BA2C-F8C409DE43C4}"/>
+    <hyperlink ref="J77" r:id="rId100" xr:uid="{D3869861-A756-4C27-9E8B-E1AAFB678848}"/>
+    <hyperlink ref="D61" r:id="rId101" xr:uid="{F596D45D-99C4-44C5-B9E3-F22F3EE405BA}"/>
+    <hyperlink ref="J61" r:id="rId102" xr:uid="{E8029A41-FFC3-463F-A840-1D0FE7638BEA}"/>
+    <hyperlink ref="D59" r:id="rId103" xr:uid="{E5FAAD65-AAE3-41C3-BE45-897105D8D336}"/>
+    <hyperlink ref="D58" r:id="rId104" xr:uid="{04FF5C1C-2CF2-4F95-B844-223EBE3BE799}"/>
+    <hyperlink ref="J58" r:id="rId105" xr:uid="{0D1320F8-6793-46E1-8C90-5F0E30DA6704}"/>
+    <hyperlink ref="D69" r:id="rId106" xr:uid="{A546C4AE-8AFE-4817-9BD9-7EC2D136191B}"/>
+    <hyperlink ref="D56" r:id="rId107" xr:uid="{99955F10-9E74-45AA-BD9C-BE19A4AC3C4E}"/>
+    <hyperlink ref="D76" r:id="rId108" xr:uid="{F468EE4D-11AF-4414-A11B-219DF8927EC9}"/>
+    <hyperlink ref="D74" r:id="rId109" xr:uid="{27CD00D0-0CB4-4BF3-8389-E496C971F624}"/>
+    <hyperlink ref="J74" r:id="rId110" xr:uid="{3DF8AACF-CDCA-46E7-9B5D-A77620E23B0C}"/>
+    <hyperlink ref="D81" r:id="rId111" xr:uid="{D3DE4DF4-E0BF-4898-B5B7-0519A305FFDA}"/>
+    <hyperlink ref="J81" r:id="rId112" xr:uid="{AE09E777-DCA9-44A5-AD15-1E9348732D6B}"/>
+    <hyperlink ref="D94" r:id="rId113" xr:uid="{AD1415D0-A608-4B1E-B5E0-85DD3A9D51DB}"/>
+    <hyperlink ref="I94" r:id="rId114" xr:uid="{E8116AE8-9E80-48C3-A389-6282450E481C}"/>
+    <hyperlink ref="J94" r:id="rId115" xr:uid="{180BF91A-11C9-47C0-8F74-D9A0717651F4}"/>
+    <hyperlink ref="D97" r:id="rId116" xr:uid="{A778AD86-3EAE-4E23-B4BD-A2201D219FF5}"/>
+    <hyperlink ref="J97" r:id="rId117" xr:uid="{F2856950-B900-4689-8484-C89F4ABDFA5E}"/>
+    <hyperlink ref="D88" r:id="rId118" xr:uid="{33C8F19E-812F-47D2-B074-4957014F8DD3}"/>
+    <hyperlink ref="D100" r:id="rId119" xr:uid="{E1C33207-CA6D-49D9-8EAF-BA7BF3B24869}"/>
+    <hyperlink ref="I100" r:id="rId120" xr:uid="{BC3637AB-8A42-4134-9DD4-AF99FEC3BDC2}"/>
+    <hyperlink ref="D60" r:id="rId121" xr:uid="{9B97ACF9-E76E-4E92-B3A0-96FEE94EB235}"/>
+    <hyperlink ref="J60" r:id="rId122" xr:uid="{E8582BC5-D1D1-4737-B58C-90AB3054F572}"/>
+    <hyperlink ref="D62" r:id="rId123" xr:uid="{CD6C41E4-F2E4-408C-A604-EE712C2B59CA}"/>
+    <hyperlink ref="J62" r:id="rId124" xr:uid="{4255D78F-37C6-4990-9558-E8435AC276A5}"/>
+    <hyperlink ref="D90" r:id="rId125" xr:uid="{660FF6B4-D273-4AD7-A377-4B367DF404B5}"/>
+    <hyperlink ref="J79" r:id="rId126" display="https://www.srtr.org/about-the-data/the-srtr-database/" xr:uid="{45E35F31-4DA0-4403-8BBA-7A9CBBD3DCF0}"/>
+    <hyperlink ref="I79" r:id="rId127" xr:uid="{DD2D6375-C451-4912-97AE-ED4E34E9F6C4}"/>
+    <hyperlink ref="D83" r:id="rId128" xr:uid="{DE1EA97C-5966-40E5-A3E4-76EE399A09B7}"/>
+    <hyperlink ref="I83" r:id="rId129" location="download" xr:uid="{5ABDB338-43E6-48DB-BD3C-440612479DFE}"/>
+    <hyperlink ref="I57" r:id="rId130" xr:uid="{029976AA-EA90-4E6B-8474-9DE4D7559F5A}"/>
+    <hyperlink ref="D99" r:id="rId131" xr:uid="{165D8FC6-4F5E-4623-B82A-C7462EF47482}"/>
+    <hyperlink ref="I99" r:id="rId132" xr:uid="{121C25B5-C322-4716-85DB-D71E6DC221BB}"/>
+    <hyperlink ref="D89" r:id="rId133" xr:uid="{F32EF4F1-E83F-40A0-BA3A-2ECB972F0396}"/>
+    <hyperlink ref="I89" r:id="rId134" xr:uid="{4BE5CCCE-F06C-4A53-89E6-0AB8C4071051}"/>
+    <hyperlink ref="D70" r:id="rId135" xr:uid="{E8F6829F-7D1F-4686-A032-FA28519648C2}"/>
+    <hyperlink ref="D64" r:id="rId136" xr:uid="{480EC1C9-C64C-47B9-BF19-65C87664AC35}"/>
+    <hyperlink ref="I64" r:id="rId137" xr:uid="{60A31AFB-C173-4DFA-8883-F70FCF17B869}"/>
+    <hyperlink ref="J64" r:id="rId138" xr:uid="{96A3834B-4758-4F07-A02A-9D76189404D2}"/>
+    <hyperlink ref="D91" r:id="rId139" xr:uid="{61FBAD07-AA8D-4573-B7CF-EA06E785AE52}"/>
+    <hyperlink ref="D95" r:id="rId140" xr:uid="{71C7EA44-EE03-484D-88F6-ECFAB6BB5DB1}"/>
+    <hyperlink ref="D96" r:id="rId141" xr:uid="{A8682898-D597-41DB-981B-6DBEA07FE856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId142"/>
